--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="212">
   <si>
     <t>B0_01</t>
   </si>
@@ -711,6 +711,27 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>Serial2(3) TX</t>
+  </si>
+  <si>
+    <t>Wire2(3) SDA</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA2</t>
   </si>
 </sst>
 </file>
@@ -1133,14 +1154,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1359,6 +1372,13 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
@@ -1403,7 +1423,8 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1451,7 +1472,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1490,7 +1511,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O45"/>
   <sortState ref="A2:N45">
     <sortCondition ref="B1:B45"/>
@@ -1498,18 +1519,18 @@
   <tableColumns count="15">
     <tableColumn id="1" name="Pin" dataDxfId="14"/>
     <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="GPIO" dataDxfId="15"/>
-    <tableColumn id="4" name="Serial" dataDxfId="12"/>
-    <tableColumn id="5" name="I2C" dataDxfId="11"/>
-    <tableColumn id="6" name="SPI" dataDxfId="10"/>
-    <tableColumn id="7" name="PWM" dataDxfId="9"/>
-    <tableColumn id="8" name="CAN" dataDxfId="8"/>
-    <tableColumn id="9" name="Audio" dataDxfId="7"/>
-    <tableColumn id="10" name="XBAR" dataDxfId="6"/>
-    <tableColumn id="11" name="FlexIO" dataDxfId="5"/>
-    <tableColumn id="12" name="Analog" dataDxfId="4"/>
-    <tableColumn id="13" name="SD/CSI/LCD" dataDxfId="3"/>
-    <tableColumn id="14" name="Column1" dataDxfId="2"/>
+    <tableColumn id="3" name="GPIO" dataDxfId="12"/>
+    <tableColumn id="4" name="Serial" dataDxfId="11"/>
+    <tableColumn id="5" name="I2C" dataDxfId="10"/>
+    <tableColumn id="6" name="SPI" dataDxfId="9"/>
+    <tableColumn id="7" name="PWM" dataDxfId="8"/>
+    <tableColumn id="8" name="CAN" dataDxfId="7"/>
+    <tableColumn id="9" name="Audio" dataDxfId="6"/>
+    <tableColumn id="10" name="XBAR" dataDxfId="5"/>
+    <tableColumn id="11" name="FlexIO" dataDxfId="4"/>
+    <tableColumn id="12" name="Analog" dataDxfId="3"/>
+    <tableColumn id="13" name="SD/CSI/LCD" dataDxfId="2"/>
+    <tableColumn id="14" name="Column1" dataDxfId="1"/>
     <tableColumn id="15" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1805,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,7 +3544,7 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5014,30 +5035,38 @@
       <c r="B34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="47">
-        <v>1.22</v>
+      <c r="C34" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+        <v>209</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>174</v>
+      </c>
       <c r="I34" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="55">
-        <v>0.12916666666666668</v>
+      <c r="J34" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="L34" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M34" s="69" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="V34" s="65" t="s">
         <v>172</v>
@@ -5071,8 +5100,8 @@
       <c r="B35" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="44">
-        <v>1.23</v>
+      <c r="C35" s="44" t="s">
+        <v>205</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>159</v>
@@ -5080,15 +5109,23 @@
       <c r="E35" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="F35" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>174</v>
+      </c>
       <c r="I35" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="53">
-        <v>0.12986111111111112</v>
+      <c r="J35" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="L35" s="44" t="s">
         <v>162</v>
@@ -5478,7 +5515,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12345" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="264">
   <si>
     <t>B0_01</t>
   </si>
@@ -731,14 +731,170 @@
     <t>3:6</t>
   </si>
   <si>
-    <t>USDHC2_DATA2</t>
+    <t xml:space="preserve">2:1     </t>
+  </si>
+  <si>
+    <t>LCD_ENABLE</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>CSI_D7</t>
+  </si>
+  <si>
+    <t>CSI_HSYNC,USDHC2_DATA3</t>
+  </si>
+  <si>
+    <t>CSI_VSYNC, USDHC2_DATA2</t>
+  </si>
+  <si>
+    <t>CSI_D6</t>
+  </si>
+  <si>
+    <t>CSI_D9, USDHC2_CMD</t>
+  </si>
+  <si>
+    <t>CSI_D5</t>
+  </si>
+  <si>
+    <t>CSI_D4</t>
+  </si>
+  <si>
+    <t>Serial4(3) RX</t>
+  </si>
+  <si>
+    <t>Wire1(3) SCL</t>
+  </si>
+  <si>
+    <t>CSI_HSYNC</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>CSI_D9</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>3:9</t>
+  </si>
+  <si>
+    <t>26/A12</t>
+  </si>
+  <si>
+    <t>AD_B1_14</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>SPI1(3) MOSI</t>
+  </si>
+  <si>
+    <t>1:TX_BCLK</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2:3  </t>
+  </si>
+  <si>
+    <t>CSI_D3</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>38/A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_B1_12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1(3) CS0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:rx_data </t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>A2:1</t>
+  </si>
+  <si>
+    <t>39/A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_B1_13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:tx_data </t>
+  </si>
+  <si>
+    <t>3:13</t>
+  </si>
+  <si>
+    <t>A2:2</t>
+  </si>
+  <si>
+    <t>40/A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_B1_04 </t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>A1:9,A2:9</t>
+  </si>
+  <si>
+    <t>CSI_PIXCLK</t>
+  </si>
+  <si>
+    <t>41/A17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD_B1_05 </t>
+  </si>
+  <si>
+    <t>GPT2_1</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>A1:10,A2:10</t>
+  </si>
+  <si>
+    <t>CSI_MCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pin Numbers</t>
+  </si>
+  <si>
+    <t>T4.1 Unique = not on TMM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,8 +950,47 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,8 +1015,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -937,11 +1138,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,11 +1321,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -999,9 +1358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,13 +1366,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,9 +1471,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1827,7 +2257,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +2321,7 @@
       <c r="N1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="77" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1902,31 +2332,31 @@
       <c r="B2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="10">
+      <c r="C2" s="10">
         <v>1.3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="82"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1935,449 +2365,449 @@
       <c r="B3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="10">
+      <c r="C3" s="10">
         <v>1.2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="26"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25">
+      <c r="C4" s="27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="19"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25">
+      <c r="C5" s="27">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="19"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25">
+      <c r="C6" s="27">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="82"/>
+      <c r="G6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="33">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="85">
         <v>0.125</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="L6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="19"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25">
+      <c r="C7" s="27">
         <v>1.17</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="33">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="85">
         <v>0.12569444444444444</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="L7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25">
+      <c r="C8" s="27">
         <v>1.18</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="33">
+      <c r="J8" s="17"/>
+      <c r="K8" s="85">
         <v>0.12638888888888888</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="19"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25">
+      <c r="C9" s="27">
         <v>1.22</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="33">
+      <c r="J9" s="17"/>
+      <c r="K9" s="85">
         <v>0.12916666666666668</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="L9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="M9" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25">
+      <c r="C10" s="27">
         <v>1.23</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="33">
+      <c r="J10" s="17"/>
+      <c r="K10" s="85">
         <v>0.12986111111111112</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="L10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="M10" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25">
+      <c r="C11" s="27">
         <v>1.24</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33">
+      <c r="I11" s="17"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85">
         <v>0.13055555555555556</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>156</v>
       </c>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25">
+      <c r="C12" s="27">
         <v>1.25</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="33">
+      <c r="J12" s="17"/>
+      <c r="K12" s="85">
         <v>0.13125000000000001</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="27" t="s">
+      <c r="E13" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="27" t="s">
+      <c r="J13" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="81"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="E14" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="J14" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="L14" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="81"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25">
+      <c r="C15" s="27">
         <v>1.31</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="25" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="33">
+      <c r="J15" s="17"/>
+      <c r="K15" s="85">
         <v>0.13541666666666666</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="L15" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="M15" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2386,29 +2816,29 @@
       <c r="B16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10">
+      <c r="C16" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="78"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="J16" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="12">
+      <c r="K16" s="86">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="26"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2417,29 +2847,29 @@
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="C17" s="89">
         <v>2.1</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8">
+      <c r="J17" s="17"/>
+      <c r="K17" s="85">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="26"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2448,19 +2878,19 @@
       <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="26"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2469,29 +2899,29 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="C19" s="89">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="85">
         <v>8.5416666666666655E-2</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="26"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2500,31 +2930,31 @@
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8">
+      <c r="C20" s="90">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="82"/>
+      <c r="G20" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="85">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="N20" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2533,31 +2963,31 @@
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8">
+      <c r="C21" s="90">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="85">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="N21" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2566,29 +2996,29 @@
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8">
+      <c r="C22" s="90">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="85">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="N22" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -2597,29 +3027,29 @@
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8">
+      <c r="C23" s="90">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="85">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="N23" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2628,29 +3058,29 @@
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8">
+      <c r="C24" s="90">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="85">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2659,29 +3089,29 @@
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8">
+      <c r="C25" s="90">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="85">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
+      <c r="L25" s="17"/>
+      <c r="M25" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="N25" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2690,27 +3120,27 @@
       <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7">
+      <c r="C26" s="89">
         <v>2.1</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8">
+      <c r="J26" s="17"/>
+      <c r="K26" s="85">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="26"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -2719,27 +3149,27 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7">
+      <c r="C27" s="89">
         <v>2.11</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8">
+      <c r="J27" s="17"/>
+      <c r="K27" s="85">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="26"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2748,34 +3178,34 @@
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7">
+      <c r="C28" s="89">
         <v>2.12</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L28" s="8">
+      <c r="K28" s="85">
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="26"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="72" t="s">
         <v>193</v>
       </c>
       <c r="D29" s="6"/>
@@ -2789,14 +3219,14 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="26"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="72" t="s">
         <v>194</v>
       </c>
       <c r="D30" s="6"/>
@@ -2810,14 +3240,14 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="26"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="72" t="s">
         <v>195</v>
       </c>
       <c r="D31" s="6"/>
@@ -2831,7 +3261,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="26"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -2840,7 +3270,9 @@
       <c r="B32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="39">
+        <v>2.16</v>
+      </c>
       <c r="D32" s="7">
         <v>2.16</v>
       </c>
@@ -2864,7 +3296,7 @@
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="26"/>
+      <c r="O32" s="24"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2873,7 +3305,9 @@
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="42">
+        <v>2.17</v>
+      </c>
       <c r="D33" s="7">
         <v>2.17</v>
       </c>
@@ -2897,295 +3331,299 @@
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="26"/>
+      <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="19">
+      <c r="C34" s="39">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19" t="s">
+      <c r="D34" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="19">
+      <c r="C35" s="42">
         <v>2.19</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19" t="s">
+      <c r="D35" s="17">
+        <v>2.19</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
     </row>
     <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="37" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="19">
+      <c r="C44" s="24"/>
+      <c r="D44" s="17">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="20">
+      <c r="C45" s="26"/>
+      <c r="D45" s="18">
         <v>2.29</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="28"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -3311,7 +3749,7 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3327,7 +3765,7 @@
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -3355,11 +3793,11 @@
       <c r="J56" s="7"/>
       <c r="K56" s="8"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="15"/>
+      <c r="M56" s="13"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3371,11 +3809,11 @@
       <c r="J57" s="7"/>
       <c r="K57" s="8"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="15"/>
+      <c r="M57" s="13"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3391,7 +3829,7 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -3407,39 +3845,39 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -3455,7 +3893,7 @@
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3467,11 +3905,11 @@
       <c r="J63" s="7"/>
       <c r="K63" s="8"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="15"/>
+      <c r="M63" s="13"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -3487,7 +3925,7 @@
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3503,7 +3941,7 @@
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3515,7 +3953,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="8"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="18"/>
+      <c r="M66" s="16"/>
       <c r="N66" s="7"/>
     </row>
   </sheetData>
@@ -3532,7 +3970,7 @@
   <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:M35"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,1969 +3987,1991 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="72" t="s">
+      <c r="W1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="X1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Y1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="72" t="s">
+      <c r="Z1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="72" t="s">
+      <c r="AA1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="72" t="s">
+      <c r="AB1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="72" t="s">
+      <c r="AC1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AD1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="72" t="s">
+      <c r="AE1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="72" t="s">
+      <c r="AF1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="72" t="s">
+      <c r="AG1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="72" t="s">
+      <c r="AH1" s="66" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="42"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="42"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="36"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="42"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="42"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
     </row>
     <row r="6" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="V6" s="42" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="V6" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="42"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="V7" s="65">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="V7" s="59">
         <v>10</v>
       </c>
-      <c r="W7" s="66" t="s">
+      <c r="W7" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="X7" s="67">
+      <c r="X7" s="61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="67" t="s">
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="AE7" s="67" t="s">
+      <c r="AE7" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="AF7" s="73">
+      <c r="AF7" s="67">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="42"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="V8" s="61">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="V8" s="55">
         <v>12</v>
       </c>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="47">
+      <c r="X8" s="41">
         <v>2.1</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47" t="s">
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AB8" s="47" t="s">
+      <c r="AB8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47" t="s">
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="55">
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="49">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="42"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="V9" s="65">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="V9" s="61">
         <v>11</v>
       </c>
-      <c r="W9" s="66" t="s">
+      <c r="W9" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="42"/>
+      <c r="X9" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC9" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF9" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG9" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH9" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI9" s="36"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="V10" s="61">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="V10" s="55">
         <v>13</v>
       </c>
-      <c r="W10" s="62" t="s">
+      <c r="W10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X10" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47" t="s">
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AB10" s="47" t="s">
+      <c r="AB10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" s="47" t="s">
+      <c r="AC10" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="55">
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="49">
         <v>8.5416666666666655E-2</v>
       </c>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="36"/>
     </row>
     <row r="11" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="V11" s="65">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="V11" s="59">
         <v>40</v>
       </c>
-      <c r="W11" s="66" t="s">
+      <c r="W11" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="47">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44" t="s">
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44" t="s">
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="53">
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="47">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44" t="s">
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="AI11" s="42"/>
+      <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="V12" s="61">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="V12" s="55">
         <v>41</v>
       </c>
-      <c r="W12" s="62" t="s">
+      <c r="W12" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="55">
+      <c r="X12" s="49">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47" t="s">
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47" t="s">
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="55">
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="49">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47" t="s">
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AI12" s="42"/>
+      <c r="AI12" s="36"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="V13" s="65">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="V13" s="59">
         <v>42</v>
       </c>
-      <c r="W13" s="66" t="s">
+      <c r="W13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="X13" s="53">
+      <c r="X13" s="47">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44" t="s">
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="53">
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="47">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44" t="s">
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AI13" s="42"/>
+      <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="V14" s="61">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="V14" s="55">
         <v>43</v>
       </c>
-      <c r="W14" s="62" t="s">
+      <c r="W14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14" s="49">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47" t="s">
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="55">
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="49">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47" t="s">
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AI14" s="42"/>
+      <c r="AI14" s="36"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="V15" s="65">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="V15" s="59">
         <v>44</v>
       </c>
-      <c r="W15" s="66" t="s">
+      <c r="W15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="53">
+      <c r="X15" s="47">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44" t="s">
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="53">
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="47">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44" t="s">
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AI15" s="42"/>
+      <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="38">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="V16" s="61">
+      <c r="M16" s="38"/>
+      <c r="V16" s="55">
         <v>45</v>
       </c>
-      <c r="W16" s="62" t="s">
+      <c r="W16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="55">
+      <c r="X16" s="49">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47" t="s">
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="55">
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="49">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47" t="s">
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AI16" s="42"/>
+      <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="41">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="V17" s="65">
+      <c r="M17" s="41"/>
+      <c r="V17" s="59">
         <v>6</v>
       </c>
-      <c r="W17" s="66" t="s">
+      <c r="W17" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="38">
         <v>2.1</v>
       </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44" t="s">
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44" t="s">
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="53">
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="47">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="42"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="50" t="s">
+      <c r="E18" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="J18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="50" t="s">
+      <c r="J18" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="V18" s="61">
+      <c r="M18" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="V18" s="55">
         <v>9</v>
       </c>
-      <c r="W18" s="62" t="s">
+      <c r="W18" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="41">
         <v>2.11</v>
       </c>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47" t="s">
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47" t="s">
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="55">
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="49">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="42"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="V19" s="65" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="V19" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="W19" s="66" t="s">
+      <c r="W19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="38">
         <v>2.12</v>
       </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44" t="s">
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="AE19" s="44" t="s">
+      <c r="AE19" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="AF19" s="53">
+      <c r="AF19" s="47">
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="42"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="38">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="53">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="47">
         <v>0.125</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="75" t="s">
+      <c r="M20" s="38"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="42"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="54"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="76" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="48"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="42"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="38">
         <v>1.18</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="53">
+      <c r="J22" s="38"/>
+      <c r="K22" s="47">
         <v>0.12638888888888888</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="V22" s="65">
+      <c r="M22" s="38"/>
+      <c r="V22" s="59">
         <v>8</v>
       </c>
-      <c r="W22" s="66" t="s">
+      <c r="W22" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="X22" s="44">
+      <c r="X22" s="38">
         <v>2.16</v>
       </c>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44" t="s">
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44" t="s">
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AE22" s="44" t="s">
+      <c r="AE22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AF22" s="44" t="s">
+      <c r="AF22" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="42"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="V23" s="61">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="V23" s="55">
         <v>7</v>
       </c>
-      <c r="W23" s="62" t="s">
+      <c r="W23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="47">
+      <c r="X23" s="41">
         <v>2.17</v>
       </c>
-      <c r="Y23" s="47" t="s">
+      <c r="Y23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47" t="s">
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47" t="s">
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AE23" s="47" t="s">
+      <c r="AE23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AF23" s="47" t="s">
+      <c r="AF23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="42"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="36"/>
     </row>
     <row r="24" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="41">
         <v>1.17</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="55">
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="49">
         <v>0.12569444444444444</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="V24" s="65" t="s">
+      <c r="M24" s="36"/>
+      <c r="V24" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="W24" s="66" t="s">
+      <c r="W24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="44">
+      <c r="X24" s="38">
         <v>2.1800000000000002</v>
       </c>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44" t="s">
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="AB24" s="44" t="s">
+      <c r="AB24" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44" t="s">
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="AE24" s="44" t="s">
+      <c r="AE24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AF24" s="44" t="s">
+      <c r="AF24" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="42"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="36"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="41">
         <v>1.24</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55">
+      <c r="I25" s="41"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49">
         <v>0.13055555555555556</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="M25" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="V25" s="61" t="s">
+      <c r="M25" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="V25" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="W25" s="62" t="s">
+      <c r="W25" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="X25" s="47">
+      <c r="X25" s="41">
         <v>2.19</v>
       </c>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47" t="s">
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AB25" s="47" t="s">
+      <c r="AB25" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47" t="s">
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="AE25" s="47" t="s">
+      <c r="AE25" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AF25" s="47" t="s">
+      <c r="AF25" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="42"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="36"/>
     </row>
     <row r="26" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="57" t="s">
+      <c r="E26" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="57" t="s">
+      <c r="J26" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="M26" s="57"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="75" t="s">
+      <c r="M26" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="V26" s="59"/>
+      <c r="W26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="42"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="36"/>
     </row>
     <row r="27" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="38">
         <v>1.25</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="53">
+      <c r="J27" s="38"/>
+      <c r="K27" s="47">
         <v>0.13125000000000001</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="76" t="s">
+      <c r="V27" s="55"/>
+      <c r="W27" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="42"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="36"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="75" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="42"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="76" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="42"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="36"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="75" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="42"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="36"/>
     </row>
     <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="76" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="42"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="36"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="61">
+      <c r="A32" s="55">
         <v>1</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="57">
         <v>1.2</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="63" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63" t="s">
+      <c r="I32" s="57"/>
+      <c r="J32" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="75" t="s">
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
     </row>
     <row r="33" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
+      <c r="A33" s="59">
         <v>0</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="61">
         <v>1.3</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="67" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67" t="s">
+      <c r="I33" s="61"/>
+      <c r="J33" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="76" t="s">
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
     </row>
     <row r="34" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="47" t="s">
+      <c r="F34" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="K34" s="55" t="s">
+      <c r="J34" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="L34" s="47" t="s">
+      <c r="L34" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="M34" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="V34" s="65" t="s">
+      <c r="M34" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="V34" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="W34" s="66" t="s">
+      <c r="W34" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="X34" s="44">
+      <c r="X34" s="38">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Y34" s="44" t="s">
+      <c r="Y34" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44" t="s">
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
     </row>
     <row r="35" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I35" s="44" t="s">
+      <c r="F35" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="53" t="s">
+      <c r="J35" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="L35" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="M35" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="V35" s="61" t="s">
+      <c r="M35" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="V35" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="W35" s="62" t="s">
+      <c r="W35" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="X35" s="47">
+      <c r="X35" s="41">
         <v>2.29</v>
       </c>
-      <c r="Y35" s="47" t="s">
+      <c r="Y35" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="41">
         <v>1.31</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="47" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47" t="s">
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="55">
+      <c r="J36" s="41"/>
+      <c r="K36" s="49">
         <v>0.13541666666666666</v>
       </c>
-      <c r="L36" s="47" t="s">
+      <c r="L36" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
     </row>
     <row r="37" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42"/>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="42"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="42"/>
-      <c r="AB43" s="42"/>
-      <c r="AC43" s="42"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
-      <c r="AH44" s="42"/>
-      <c r="AI44" s="42"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5522,12 +5982,545 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="93">
+        <v>1.28</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="M12" s="105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="93">
+        <v>1.29</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="L13" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="M14" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="108">
+        <v>1.21</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15" s="109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:M11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EVKB_1060\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5076731-3454-4D5A-AE21-1DDE8963C2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E012787-40B5-4B42-9195-F3DE2F2915C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2025" windowWidth="35145" windowHeight="18630" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="510" windowWidth="25725" windowHeight="18630" tabRatio="400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mux" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1047">
   <si>
     <t>B0_01</t>
   </si>
@@ -1108,12 +1109,2205 @@
   <si>
     <t>LCD_HSYNC</t>
   </si>
+  <si>
+    <t>ALT0</t>
+  </si>
+  <si>
+    <t>ALt1</t>
+  </si>
+  <si>
+    <t>ALT2</t>
+  </si>
+  <si>
+    <t>ALT3</t>
+  </si>
+  <si>
+    <t>ALT4</t>
+  </si>
+  <si>
+    <t>Alt5</t>
+  </si>
+  <si>
+    <t>ALT6</t>
+  </si>
+  <si>
+    <t>ALT7</t>
+  </si>
+  <si>
+    <t>ALT8</t>
+  </si>
+  <si>
+    <t>ALT9</t>
+  </si>
+  <si>
+    <t>FLEXCAN2_RX</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT17</t>
+  </si>
+  <si>
+    <t>LPUART6_RX</t>
+  </si>
+  <si>
+    <t>USB_OTG1_OC</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMX01</t>
+  </si>
+  <si>
+    <t>GPIO1_IO03</t>
+  </si>
+  <si>
+    <t>REF_CLK_24M</t>
+  </si>
+  <si>
+    <t>LPSPI3_PCS0</t>
+  </si>
+  <si>
+    <t>FLEXCAN2_TX</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT16</t>
+  </si>
+  <si>
+    <t>LPUART6_TX</t>
+  </si>
+  <si>
+    <t>USB_OTG1_PWR</t>
+  </si>
+  <si>
+    <t>LEXPWM1_PWMX0</t>
+  </si>
+  <si>
+    <t>GPIO1_IO02</t>
+  </si>
+  <si>
+    <t>LPI2C1_HREQ</t>
+  </si>
+  <si>
+    <t>LPSPI3_SDI</t>
+  </si>
+  <si>
+    <t>EMC_04</t>
+  </si>
+  <si>
+    <t>SEMC_DATA04</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMA02</t>
+  </si>
+  <si>
+    <t>SAI2_TX_DATA</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT06</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO04</t>
+  </si>
+  <si>
+    <t>GPIO4_IO04</t>
+  </si>
+  <si>
+    <t>EMC_05</t>
+  </si>
+  <si>
+    <t>SEMC_DATA05</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMB0</t>
+  </si>
+  <si>
+    <t>SAI2_TX_SYNC</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT07</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO05</t>
+  </si>
+  <si>
+    <t>GPIO4_IO05</t>
+  </si>
+  <si>
+    <t>EMC_06</t>
+  </si>
+  <si>
+    <t>SEMC_DATA06</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMA00</t>
+  </si>
+  <si>
+    <t>SAI2_TX_BCLK</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT08</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO06</t>
+  </si>
+  <si>
+    <t>GPIO4_IO06</t>
+  </si>
+  <si>
+    <t>EMC_08</t>
+  </si>
+  <si>
+    <t>SEMC_DM00</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMA01</t>
+  </si>
+  <si>
+    <t>SAI2_RX_DATA</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO08</t>
+  </si>
+  <si>
+    <t>GPIO4_IO08</t>
+  </si>
+  <si>
+    <t>LCD_DATA06</t>
+  </si>
+  <si>
+    <t>QTIMER4_TIMER1</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMA02</t>
+  </si>
+  <si>
+    <t>SAI1_TX_DATA03</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO10</t>
+  </si>
+  <si>
+    <t>GPIO2_IO10</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG06</t>
+  </si>
+  <si>
+    <t>ENET2_CRS</t>
+  </si>
+  <si>
+    <t>LCD_DATA13</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT15</t>
+  </si>
+  <si>
+    <t>LPUART4_RX</t>
+  </si>
+  <si>
+    <t>SAI1_TX_DATA00</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO17</t>
+  </si>
+  <si>
+    <t>GPIO2_IO17</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMB03</t>
+  </si>
+  <si>
+    <t>ENET2_RDATA00</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO17</t>
+  </si>
+  <si>
+    <t>LCD_DATA12</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT14</t>
+  </si>
+  <si>
+    <t>LPUART4_TX</t>
+  </si>
+  <si>
+    <t>SAI1_RX_DATA00</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO16</t>
+  </si>
+  <si>
+    <t>GPIO2_IO16</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMA03</t>
+  </si>
+  <si>
+    <t>ENET2_RX_ER</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO16</t>
+  </si>
+  <si>
+    <t>LCD_DATA07</t>
+  </si>
+  <si>
+    <t>QTIMER4_TIMER2</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMB02</t>
+  </si>
+  <si>
+    <t>SAI1_TX_DATA02</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO11</t>
+  </si>
+  <si>
+    <t>GPIO2_IO11</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG07</t>
+  </si>
+  <si>
+    <t>ENET2_COL</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>QTIMER1_TIMER0</t>
+  </si>
+  <si>
+    <t>MQS_RIGHT</t>
+  </si>
+  <si>
+    <t>LPSPI4_PCS0</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO00</t>
+  </si>
+  <si>
+    <t>GPIO2_IO00</t>
+  </si>
+  <si>
+    <t>SEMC_CSX01</t>
+  </si>
+  <si>
+    <t>ENET2_MDC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>QTIMER1_TIMER2</t>
+  </si>
+  <si>
+    <t>FLEXCAN1_TX</t>
+  </si>
+  <si>
+    <t>LPSPI4_SDO</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO02</t>
+  </si>
+  <si>
+    <t>GPIO2_IO02</t>
+  </si>
+  <si>
+    <t>SEMC_CSX03</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT0_OUT</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>QTIMER1_TIMER1</t>
+  </si>
+  <si>
+    <t>LPSPI4_SDI</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO01</t>
+  </si>
+  <si>
+    <t>GPIO2_IO01</t>
+  </si>
+  <si>
+    <t>SEMC_CSX02</t>
+  </si>
+  <si>
+    <t>ENET2_MDIO</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>QTIMER2_TIMER0</t>
+  </si>
+  <si>
+    <t>FLEXCAN1_RX</t>
+  </si>
+  <si>
+    <t>LPSPI4_SCK</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO03</t>
+  </si>
+  <si>
+    <t>GPIO2_IO03</t>
+  </si>
+  <si>
+    <t>WDOG2_RESET_B_DEB</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT0_IN</t>
+  </si>
+  <si>
+    <t>USB_OTG1_ID</t>
+  </si>
+  <si>
+    <t>QTIMER3_TIMER2</t>
+  </si>
+  <si>
+    <t>LPUART2_TX</t>
+  </si>
+  <si>
+    <t>ENET_1588_EVENT2_OUT</t>
+  </si>
+  <si>
+    <t>GPIO1_IO18</t>
+  </si>
+  <si>
+    <t>USDHC1_CD_B</t>
+  </si>
+  <si>
+    <t>KPP_ROW06</t>
+  </si>
+  <si>
+    <t>GPT2_CLK</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO02</t>
+  </si>
+  <si>
+    <t>15/A1</t>
+  </si>
+  <si>
+    <t>AD_B1_03</t>
+  </si>
+  <si>
+    <t>QTIMER3_TIMER3</t>
+  </si>
+  <si>
+    <t>LPUART2_RX</t>
+  </si>
+  <si>
+    <t>SPDIF_IN</t>
+  </si>
+  <si>
+    <t>ENET_1588_EVENT2_IN</t>
+  </si>
+  <si>
+    <t>GPIO1_IO19</t>
+  </si>
+  <si>
+    <t>USDHC2_CD_B</t>
+  </si>
+  <si>
+    <t>KPP_COL06</t>
+  </si>
+  <si>
+    <t>GPT2_CAPTURE1</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO03</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_DATA00</t>
+  </si>
+  <si>
+    <t>LPI2C3_SCL</t>
+  </si>
+  <si>
+    <t>LPUART3_RX</t>
+  </si>
+  <si>
+    <t>SPDIF_EXT_CLK</t>
+  </si>
+  <si>
+    <t>GPIO1_IO23</t>
+  </si>
+  <si>
+    <t>KPP_COL04</t>
+  </si>
+  <si>
+    <t>GPT2_COMPARE3</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO07</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_DATA01</t>
+  </si>
+  <si>
+    <t>LPI2C3_SDA</t>
+  </si>
+  <si>
+    <t>LPUART3_TX</t>
+  </si>
+  <si>
+    <t>GPIO1_IO22</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA2</t>
+  </si>
+  <si>
+    <t>KPP_ROW04</t>
+  </si>
+  <si>
+    <t>GPT2_COMPARE2</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO06</t>
+  </si>
+  <si>
+    <t>QTIMER3_TIMER1</t>
+  </si>
+  <si>
+    <t>LPUART2_RTS_B</t>
+  </si>
+  <si>
+    <t>LPI2C1_SDA</t>
+  </si>
+  <si>
+    <t>CCM_PMIC_READY</t>
+  </si>
+  <si>
+    <t>GPIO1_IO17</t>
+  </si>
+  <si>
+    <t>USDHC1_VSELECT</t>
+  </si>
+  <si>
+    <t>KPP_COL07</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO01</t>
+  </si>
+  <si>
+    <t>USB_OTG2_ID</t>
+  </si>
+  <si>
+    <t>QTIMER3_TIMER0</t>
+  </si>
+  <si>
+    <t>LPUART2_CTS_B</t>
+  </si>
+  <si>
+    <t>LPI2C1_SCL</t>
+  </si>
+  <si>
+    <t>WDOG1_B</t>
+  </si>
+  <si>
+    <t>GPIO1_IO16</t>
+  </si>
+  <si>
+    <t>USDHC1_W</t>
+  </si>
+  <si>
+    <t>KPP_ROW07</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO00</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_DATA03</t>
+  </si>
+  <si>
+    <t>LPUART8_TX</t>
+  </si>
+  <si>
+    <t>SAI1_RX_SYNC</t>
+  </si>
+  <si>
+    <t>CSI_DATA07</t>
+  </si>
+  <si>
+    <t>GPIO1_IO26</t>
+  </si>
+  <si>
+    <t>USDHC2_WP</t>
+  </si>
+  <si>
+    <t>KPP_ROW02</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT1_OUT</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO10</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_DATA02</t>
+  </si>
+  <si>
+    <t>EWM_OUT_B</t>
+  </si>
+  <si>
+    <t>LPUART8_RX</t>
+  </si>
+  <si>
+    <t>SAI1_RX_BCL</t>
+  </si>
+  <si>
+    <t>CSI_DATA06</t>
+  </si>
+  <si>
+    <t>GPIO1_IO27</t>
+  </si>
+  <si>
+    <t>USDHC2_RESET_B</t>
+  </si>
+  <si>
+    <t>KPP_COL02</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT1_IN</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO11</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_SS1_B</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMA00</t>
+  </si>
+  <si>
+    <t>CSI_DATA09</t>
+  </si>
+  <si>
+    <t>GPIO1_IO24</t>
+  </si>
+  <si>
+    <t>KPP_ROW03</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO08</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_DQS</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMA01</t>
+  </si>
+  <si>
+    <t>SAI1_MCLK</t>
+  </si>
+  <si>
+    <t>CSI_DATA08</t>
+  </si>
+  <si>
+    <t>GPIO1_IO25</t>
+  </si>
+  <si>
+    <t>USDHC2_CLK</t>
+  </si>
+  <si>
+    <t>KPP_COL03</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO09</t>
+  </si>
+  <si>
+    <t>LPI2C4_SCL</t>
+  </si>
+  <si>
+    <t>LPUART1_TX</t>
+  </si>
+  <si>
+    <t>WDOG2_WDOG_B</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMX02</t>
+  </si>
+  <si>
+    <t>GPIO1_IO12</t>
+  </si>
+  <si>
+    <t>ENET_1588_EVENT1_OUT</t>
+  </si>
+  <si>
+    <t>NMI_GLUE_NMI</t>
+  </si>
+  <si>
+    <t>LPI2C4_SDA</t>
+  </si>
+  <si>
+    <t>LPUART1_RX</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMX03</t>
+  </si>
+  <si>
+    <t>GPIO1_IO13</t>
+  </si>
+  <si>
+    <t>ENET_1588_EVENT1_IN</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_SCLK</t>
+  </si>
+  <si>
+    <t>ACMP_OUT02</t>
+  </si>
+  <si>
+    <t>LPSPI3_SDO</t>
+  </si>
+  <si>
+    <t>SAI1_TX_BCLK</t>
+  </si>
+  <si>
+    <t>CSI_DATA03</t>
+  </si>
+  <si>
+    <t>GPIO1_IO30</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA6</t>
+  </si>
+  <si>
+    <t>KPP_ROW00</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT3_OUT</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO14</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_SS0_B</t>
+  </si>
+  <si>
+    <t>ACMP_OUT03</t>
+  </si>
+  <si>
+    <t>LPSPI3_SCK</t>
+  </si>
+  <si>
+    <t>SAI1_TX_SYNC</t>
+  </si>
+  <si>
+    <t>CSI_DATA02</t>
+  </si>
+  <si>
+    <t>GPIO1_IO31</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA7</t>
+  </si>
+  <si>
+    <t>KPP_COL00</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT3_IN</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO15</t>
+  </si>
+  <si>
+    <t>EMC_32</t>
+  </si>
+  <si>
+    <t>SEMC_DATA10</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMB01</t>
+  </si>
+  <si>
+    <t>LPUART7_RX</t>
+  </si>
+  <si>
+    <t>CCM_PMIC_RDY</t>
+  </si>
+  <si>
+    <t>CSI_DATA21</t>
+  </si>
+  <si>
+    <t>GPIO3_IO18</t>
+  </si>
+  <si>
+    <t>ENET2_TX_EN</t>
+  </si>
+  <si>
+    <t>EMC_31</t>
+  </si>
+  <si>
+    <t>SEMC_DATA09</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMA01</t>
+  </si>
+  <si>
+    <t>LPUART7_TX</t>
+  </si>
+  <si>
+    <t>LPSPI1_PCS1</t>
+  </si>
+  <si>
+    <t>CSI_DATA22</t>
+  </si>
+  <si>
+    <t>GPIO4_IO31</t>
+  </si>
+  <si>
+    <t>ENET2_TDATA01</t>
+  </si>
+  <si>
+    <t>EMC_37</t>
+  </si>
+  <si>
+    <t>SEMC_DATA15</t>
+  </si>
+  <si>
+    <t>XBAR1_IN23</t>
+  </si>
+  <si>
+    <t>GPT1_COMPARE3</t>
+  </si>
+  <si>
+    <t>SAI3_MCLK</t>
+  </si>
+  <si>
+    <t>CSI_DATA16</t>
+  </si>
+  <si>
+    <t>GPIO3_IO23</t>
+  </si>
+  <si>
+    <t>ENET2_RX_EN</t>
+  </si>
+  <si>
+    <t>FLEXCAN3_RX</t>
+  </si>
+  <si>
+    <t>EMC_36</t>
+  </si>
+  <si>
+    <t>SEMC_DATA14</t>
+  </si>
+  <si>
+    <t>XBAR1_IN22</t>
+  </si>
+  <si>
+    <t>GPT1_COMPARE2</t>
+  </si>
+  <si>
+    <t>SAI3_TX_DATA</t>
+  </si>
+  <si>
+    <t>CSI_DATA17</t>
+  </si>
+  <si>
+    <t>GPIO3_IO22</t>
+  </si>
+  <si>
+    <t>USDHC1_WP</t>
+  </si>
+  <si>
+    <t>ENET2_RDATA01</t>
+  </si>
+  <si>
+    <t>FLEXCAN3_TX</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>LCD_DATA08</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT10</t>
+  </si>
+  <si>
+    <t>ARM_TRACE_CLK</t>
+  </si>
+  <si>
+    <t>SAI1_TX_DATA01</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO12</t>
+  </si>
+  <si>
+    <t>GPIO2_IO12</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG08</t>
+  </si>
+  <si>
+    <t>ENET2_TDATA00</t>
+  </si>
+  <si>
+    <t>EMC_07</t>
+  </si>
+  <si>
+    <t>SEMC_DATA07</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMB00</t>
+  </si>
+  <si>
+    <t>SAI2_MCLK</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT09</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO07</t>
+  </si>
+  <si>
+    <t>GPIO4_IO07</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>SD_B0_03</t>
+  </si>
+  <si>
+    <t>USDHC1_DATA1</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMB01</t>
+  </si>
+  <si>
+    <t>LPUART8_RTS_B</t>
+  </si>
+  <si>
+    <t>LPSPI1_SDI</t>
+  </si>
+  <si>
+    <t>GPIO3_IO15</t>
+  </si>
+  <si>
+    <t>SEMC_CLK6</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>SD_B0_02</t>
+  </si>
+  <si>
+    <t>USDHC1_DATA0</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMA01</t>
+  </si>
+  <si>
+    <t>LPUART8_CTS_B</t>
+  </si>
+  <si>
+    <t>LPSPI1_SDO</t>
+  </si>
+  <si>
+    <t>GPIO3_IO14</t>
+  </si>
+  <si>
+    <t>SEMC_CLK5</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>SD_B0_01</t>
+  </si>
+  <si>
+    <t>USDHC1_CLK</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMB00</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT05</t>
+  </si>
+  <si>
+    <t>LPSPI1_PCS0</t>
+  </si>
+  <si>
+    <t>GPIO3_IO13</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_SS1_B</t>
+  </si>
+  <si>
+    <t>ENET2_TX_CLK</t>
+  </si>
+  <si>
+    <t>ENET2_REF_CLK2</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>SD_B0_00</t>
+  </si>
+  <si>
+    <t>USDHC1_CMD</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMA00</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT04</t>
+  </si>
+  <si>
+    <t>LPSPI1_SCK</t>
+  </si>
+  <si>
+    <t>GPIO3_IO12</t>
+  </si>
+  <si>
+    <t>SEMC_DQS4</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SD_B0_04</t>
+  </si>
+  <si>
+    <t>USDHC1_DATA2</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMA02</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_SS0_B</t>
+  </si>
+  <si>
+    <t>GPIO3_IO16</t>
+  </si>
+  <si>
+    <t>CCM_CLKO1</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SD_B0_05</t>
+  </si>
+  <si>
+    <t>USDHC1_DATA3</t>
+  </si>
+  <si>
+    <t>FLEXPWM1_PWMB02</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_DQS</t>
+  </si>
+  <si>
+    <t>GPIO3_IO17</t>
+  </si>
+  <si>
+    <t>CCM_CLKO2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>LCD_DATA00</t>
+  </si>
+  <si>
+    <t>QTIMER2_TIMER1</t>
+  </si>
+  <si>
+    <t>LPI2C2_SCL</t>
+  </si>
+  <si>
+    <t>ARM_TRACE0</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO04</t>
+  </si>
+  <si>
+    <t>GPIO2_IO04</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG00</t>
+  </si>
+  <si>
+    <t>ENET2_TDATA03</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>LCD_DATA01</t>
+  </si>
+  <si>
+    <t>QTIMER2_TIMER2</t>
+  </si>
+  <si>
+    <t>LPI2C2_SDA</t>
+  </si>
+  <si>
+    <t>ARM_TRACE1</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO05</t>
+  </si>
+  <si>
+    <t>GPIO2_IO05</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG01</t>
+  </si>
+  <si>
+    <t>ENET2_TDATA02</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>LCD_DATA02</t>
+  </si>
+  <si>
+    <t>ARM_TRACE2</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO06</t>
+  </si>
+  <si>
+    <t>GPIO2_IO06</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG02</t>
+  </si>
+  <si>
+    <t>ENET2_RX_CLK</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>LCD_DATA03</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWNB00</t>
+  </si>
+  <si>
+    <t>ARM_TRACE3</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO07</t>
+  </si>
+  <si>
+    <t>GPIO2_IO07</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG03</t>
+  </si>
+  <si>
+    <t>ENET2_TX_ER</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>LCD_DATA04</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO08</t>
+  </si>
+  <si>
+    <t>GPIO2_IO08</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG04</t>
+  </si>
+  <si>
+    <t>ENET2_RDATA03</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>LCD_DATA05</t>
+  </si>
+  <si>
+    <t>QTIMER4_TIMER0</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMB01</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO09</t>
+  </si>
+  <si>
+    <t>GPIO2_IO09</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG05</t>
+  </si>
+  <si>
+    <t>ENET2_RDATA02</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>EMC_22</t>
+  </si>
+  <si>
+    <t>SEMC_BA1</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMB03</t>
+  </si>
+  <si>
+    <t>ENET_TDATA00</t>
+  </si>
+  <si>
+    <t>QTIMER2_TIMER3</t>
+  </si>
+  <si>
+    <t>GPIO4_IO22</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_SS1_B of</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>EMC_24</t>
+  </si>
+  <si>
+    <t>SEMC_CAS</t>
+  </si>
+  <si>
+    <t>LPUART5_RX</t>
+  </si>
+  <si>
+    <t>ENET_TX_EN</t>
+  </si>
+  <si>
+    <t>GPT1_CAPTURE1</t>
+  </si>
+  <si>
+    <t>GPIO4_IO24</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_SS0_B</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>EMC_25</t>
+  </si>
+  <si>
+    <t>SEMC_RAS</t>
+  </si>
+  <si>
+    <t>ENET_TX_CLK</t>
+  </si>
+  <si>
+    <t>ENET_REF_CLK</t>
+  </si>
+  <si>
+    <t>GPIO4_IO25</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_SCLK</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>EMC_26</t>
+  </si>
+  <si>
+    <t>SEMC_CLK</t>
+  </si>
+  <si>
+    <t>ENET_RX_ER</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO12</t>
+  </si>
+  <si>
+    <t>GPIO4_IO26</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_DATA00</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>EMC_27</t>
+  </si>
+  <si>
+    <t>SEMC_CKE</t>
+  </si>
+  <si>
+    <t>LPUART5_RTS_B</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO13</t>
+  </si>
+  <si>
+    <t>GPIO4_IO27</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_DATA01</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>EMC_28</t>
+  </si>
+  <si>
+    <t>SEMC_WE</t>
+  </si>
+  <si>
+    <t>LPUART5_CTS_B</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO14</t>
+  </si>
+  <si>
+    <t>GPIO4_IO28</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_DATA02</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>EMC_29</t>
+  </si>
+  <si>
+    <t>SEMC_CS0</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMA00</t>
+  </si>
+  <si>
+    <t>LPUART6_RTS_B</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO15</t>
+  </si>
+  <si>
+    <t>GPIO4_IO29</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_DATA03</t>
+  </si>
+  <si>
+    <t>EMC_00</t>
+  </si>
+  <si>
+    <t>EMC_01</t>
+  </si>
+  <si>
+    <t>EMC_02</t>
+  </si>
+  <si>
+    <t>EMC_03</t>
+  </si>
+  <si>
+    <t>SEMC_DATA00</t>
+  </si>
+  <si>
+    <t>SEMC_DATA01</t>
+  </si>
+  <si>
+    <t>SEMC_DATA02</t>
+  </si>
+  <si>
+    <t>SEMC_DATA03</t>
+  </si>
+  <si>
+    <t>LPSPI2_SCK</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT02</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT03</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO00</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO01</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO02</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO03</t>
+  </si>
+  <si>
+    <t>GPIO4_IO00</t>
+  </si>
+  <si>
+    <t>GPIO4_IO01</t>
+  </si>
+  <si>
+    <t>GPIO4_IO02</t>
+  </si>
+  <si>
+    <t>GPIO4_IO03</t>
+  </si>
+  <si>
+    <t>LPSPI2_PCS0</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMB00</t>
+  </si>
+  <si>
+    <t>LPSPI2_SDO</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMB01</t>
+  </si>
+  <si>
+    <t>LPSPI2_SDI</t>
+  </si>
+  <si>
+    <t>EMC_09</t>
+  </si>
+  <si>
+    <t>EMC_10</t>
+  </si>
+  <si>
+    <t>EMC_11</t>
+  </si>
+  <si>
+    <t>EMC_12</t>
+  </si>
+  <si>
+    <t>EMC_13</t>
+  </si>
+  <si>
+    <t>EMC_14</t>
+  </si>
+  <si>
+    <t>EMC_15</t>
+  </si>
+  <si>
+    <t>EMC_16</t>
+  </si>
+  <si>
+    <t>EMC_17</t>
+  </si>
+  <si>
+    <t>EMC_18</t>
+  </si>
+  <si>
+    <t>EMC_19</t>
+  </si>
+  <si>
+    <t>EMC_20</t>
+  </si>
+  <si>
+    <t>EMC_21</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR00</t>
+  </si>
+  <si>
+    <t>SAI2_RX_SYNC</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO09</t>
+  </si>
+  <si>
+    <t>GPIO4_IO09</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_SS1_B</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR01</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR02</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR03</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR04</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR05</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR06</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR07</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR08</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR09</t>
+  </si>
+  <si>
+    <t>SAI2_RX_BCLK</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO10</t>
+  </si>
+  <si>
+    <t>GPIO4_IO10</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_SS0_B</t>
+  </si>
+  <si>
+    <t>FLEXIO1_FLEXIO11</t>
+  </si>
+  <si>
+    <t>GPIO4_IO11</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_DQS</t>
+  </si>
+  <si>
+    <t>XBAR1_IN24</t>
+  </si>
+  <si>
+    <t>GPIO4_IO12</t>
+  </si>
+  <si>
+    <t>GPIO4_IO13</t>
+  </si>
+  <si>
+    <t>GPIO4_IO14</t>
+  </si>
+  <si>
+    <t>GPIO4_IO15</t>
+  </si>
+  <si>
+    <t>GPIO4_IO16</t>
+  </si>
+  <si>
+    <t>GPIO4_IO17</t>
+  </si>
+  <si>
+    <t>GPIO4_IO18</t>
+  </si>
+  <si>
+    <t>GPIO4_IO19</t>
+  </si>
+  <si>
+    <t>GPIO4_IO20</t>
+  </si>
+  <si>
+    <t>GPIO4_IO21</t>
+  </si>
+  <si>
+    <t>XBAR1_IN25</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_DATA00</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_SCL</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT19</t>
+  </si>
+  <si>
+    <t>LPSPI2_PCS1</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_DATA01</t>
+  </si>
+  <si>
+    <t>XBAR1_IN20</t>
+  </si>
+  <si>
+    <t>XBAR1_IN21</t>
+  </si>
+  <si>
+    <t>LPUART3_CTS_B</t>
+  </si>
+  <si>
+    <t>PDIF_OUT</t>
+  </si>
+  <si>
+    <t>LEXSPI2_B_DATA02</t>
+  </si>
+  <si>
+    <t>LPUART3_RTS_B</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_B_DATA03</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMA03</t>
+  </si>
+  <si>
+    <t>LPUART4_CTS_B</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMB03</t>
+  </si>
+  <si>
+    <t>LPUART4_RTS_B</t>
+  </si>
+  <si>
+    <t>SNVS_VIO_5_CTL</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR10</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR11</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMA03</t>
+  </si>
+  <si>
+    <t>ENET_RDATA01</t>
+  </si>
+  <si>
+    <t>SNVS_VIO_5</t>
+  </si>
+  <si>
+    <t>SEMC_ADDR12</t>
+  </si>
+  <si>
+    <t>FLEXPWM2_PWMB03</t>
+  </si>
+  <si>
+    <t>ENET_RDATA00</t>
+  </si>
+  <si>
+    <t>SEMC_BA0</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMA03</t>
+  </si>
+  <si>
+    <t>ENET_TDATA01</t>
+  </si>
+  <si>
+    <t>EMC_23</t>
+  </si>
+  <si>
+    <t>LPUART5_TX</t>
+  </si>
+  <si>
+    <t>ENET_RX_EN</t>
+  </si>
+  <si>
+    <t>GPT1_CAPTURE2</t>
+  </si>
+  <si>
+    <t>GPIO4_IO23</t>
+  </si>
+  <si>
+    <t>FLEXSPI2_A_DQS</t>
+  </si>
+  <si>
+    <t>EMC_30</t>
+  </si>
+  <si>
+    <t>SEMC_DATA08</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMB00</t>
+  </si>
+  <si>
+    <t>LPUART6_CTS_B</t>
+  </si>
+  <si>
+    <t>CSI_DATA23</t>
+  </si>
+  <si>
+    <t>GPIO4_IO30</t>
+  </si>
+  <si>
+    <t>EMC_33</t>
+  </si>
+  <si>
+    <t>EMC_34</t>
+  </si>
+  <si>
+    <t>EMC_35</t>
+  </si>
+  <si>
+    <t>SEMC_DATA11</t>
+  </si>
+  <si>
+    <t>SEMC_DATA12</t>
+  </si>
+  <si>
+    <t>SEMC_DATA13</t>
+  </si>
+  <si>
+    <t>GPIO3_IO19</t>
+  </si>
+  <si>
+    <t>GPIO3_IO20</t>
+  </si>
+  <si>
+    <t>GPIO3_IO21</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMA02</t>
+  </si>
+  <si>
+    <t>USDHC1_RESET_B</t>
+  </si>
+  <si>
+    <t>SAI3_RX_DATA</t>
+  </si>
+  <si>
+    <t>CSI_DATA20</t>
+  </si>
+  <si>
+    <t>CSI_DATA19</t>
+  </si>
+  <si>
+    <t>CSI_DATA18</t>
+  </si>
+  <si>
+    <t>FLEXPWM3_PWMB02</t>
+  </si>
+  <si>
+    <t>SAI3_RX_SYNC</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT18</t>
+  </si>
+  <si>
+    <t>GPT1_COMPARE1</t>
+  </si>
+  <si>
+    <t>SAI3_RX_BCLK</t>
+  </si>
+  <si>
+    <t>EMC_38</t>
+  </si>
+  <si>
+    <t>EMC_39</t>
+  </si>
+  <si>
+    <t>EMC_40</t>
+  </si>
+  <si>
+    <t>EMC_41</t>
+  </si>
+  <si>
+    <t>SEMC_DM01</t>
+  </si>
+  <si>
+    <t>SAI3_TX_BCLK</t>
+  </si>
+  <si>
+    <t>CSI_FIELD</t>
+  </si>
+  <si>
+    <t>GPIO3_IO24</t>
+  </si>
+  <si>
+    <t>GPIO3_IO25</t>
+  </si>
+  <si>
+    <t>GPIO3_IO26</t>
+  </si>
+  <si>
+    <t>GPIO3_IO27</t>
+  </si>
+  <si>
+    <t>USDHC2_VSELECT</t>
+  </si>
+  <si>
+    <t>SEMC_DQS</t>
+  </si>
+  <si>
+    <t>SAI3_TX_SYNC</t>
+  </si>
+  <si>
+    <t>WDOG1_WDOG</t>
+  </si>
+  <si>
+    <t>SEMC_RDY</t>
+  </si>
+  <si>
+    <t>GPT2_CAPTURE2</t>
+  </si>
+  <si>
+    <t>LPSPI1_PCS2</t>
+  </si>
+  <si>
+    <t>USB_OTG2_O</t>
+  </si>
+  <si>
+    <t>ENET_MDC</t>
+  </si>
+  <si>
+    <t>SEMC_CSX00</t>
+  </si>
+  <si>
+    <t>LPSPI1_PCS3</t>
+  </si>
+  <si>
+    <t>USB_OTG2_PWR</t>
+  </si>
+  <si>
+    <t>ENET_MDIO</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>LCD_DATA09</t>
+  </si>
+  <si>
+    <t>LCD_DATA10</t>
+  </si>
+  <si>
+    <t>LCD_DATA11</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT11</t>
+  </si>
+  <si>
+    <t>ARM_TRACE_SWO</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO13</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO14</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO15</t>
+  </si>
+  <si>
+    <t>GPIO2_IO13</t>
+  </si>
+  <si>
+    <t>GPIO2_IO14</t>
+  </si>
+  <si>
+    <t>GPIO2_IO15</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG09</t>
+  </si>
+  <si>
+    <t>ENET2_TDAT</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT12</t>
+  </si>
+  <si>
+    <t>XBAR1_INOUT13</t>
+  </si>
+  <si>
+    <t>ARM_TXEV</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG10</t>
+  </si>
+  <si>
+    <t>ARM_RXEV</t>
+  </si>
+  <si>
+    <t>SAI1_RX_BCLK</t>
+  </si>
+  <si>
+    <t>SRC_BOOT_CFG11</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>LCD_DATA14</t>
+  </si>
+  <si>
+    <t>LCD_DATA15</t>
+  </si>
+  <si>
+    <t>LCD_DATA16</t>
+  </si>
+  <si>
+    <t>LCD_DATA17</t>
+  </si>
+  <si>
+    <t>LCD_DATA18</t>
+  </si>
+  <si>
+    <t>LCD_DATA19</t>
+  </si>
+  <si>
+    <t>LCD_DATA20</t>
+  </si>
+  <si>
+    <t>LCD_DATA21</t>
+  </si>
+  <si>
+    <t>LCD_DATA22</t>
+  </si>
+  <si>
+    <t>LCD_DATA23</t>
+  </si>
+  <si>
+    <t>LPSPI4_PCS2</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO18</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO19</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO20</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO21</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO22</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO23</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO24</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO25</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO26</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO27</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO28</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO29</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO30</t>
+  </si>
+  <si>
+    <t>FLEXIO2_FLEXIO31</t>
+  </si>
+  <si>
+    <t>GPIO2_IO18</t>
+  </si>
+  <si>
+    <t>GPIO2_IO19</t>
+  </si>
+  <si>
+    <t>GPIO2_IO20</t>
+  </si>
+  <si>
+    <t>GPIO2_IO21</t>
+  </si>
+  <si>
+    <t>GPIO2_IO22</t>
+  </si>
+  <si>
+    <t>GPIO2_IO23</t>
+  </si>
+  <si>
+    <t>GPIO2_IO24</t>
+  </si>
+  <si>
+    <t>GPIO2_IO25</t>
+  </si>
+  <si>
+    <t>GPIO2_IO26</t>
+  </si>
+  <si>
+    <t>GPIO2_IO27</t>
+  </si>
+  <si>
+    <t>GPIO2_IO28</t>
+  </si>
+  <si>
+    <t>GPIO2_IO29</t>
+  </si>
+  <si>
+    <t>GPIO2_IO30</t>
+  </si>
+  <si>
+    <t>GPIO2_IO31</t>
+  </si>
+  <si>
+    <t>LPSPI4_PCS1</t>
+  </si>
+  <si>
+    <t>LEXPWM2_PWMB03</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO18</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO19</t>
+  </si>
+  <si>
+    <t>CSI_DATA15</t>
+  </si>
+  <si>
+    <t>ENET_RX_DATA00</t>
+  </si>
+  <si>
+    <t>GPT1_CL</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO20</t>
+  </si>
+  <si>
+    <t>CSI_DATA14</t>
+  </si>
+  <si>
+    <t>ENET_RX_DATA01</t>
+  </si>
+  <si>
+    <t>GPT1_CAPTURE1 of</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO21</t>
+  </si>
+  <si>
+    <t>CSI_DATA13</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO22</t>
+  </si>
+  <si>
+    <t>ENET_TX_DATA00</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO23</t>
+  </si>
+  <si>
+    <t>QTIMER1_TIMER3</t>
+  </si>
+  <si>
+    <t>CSI_DATA12</t>
+  </si>
+  <si>
+    <t>CSI_DATA11</t>
+  </si>
+  <si>
+    <t>ENET_TX_DATA01</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO24</t>
+  </si>
+  <si>
+    <t>CSI_DATA10</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO25</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO26</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO27</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO28</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO29</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO30</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO31</t>
+  </si>
+  <si>
+    <t>QTIMER4_TIMER3</t>
+  </si>
+  <si>
+    <t>CSI_DATA00</t>
+  </si>
+  <si>
+    <t>CSI_DATA01</t>
+  </si>
+  <si>
+    <t>LPSPI4_PCS3</t>
+  </si>
+  <si>
+    <t>ENET_1588_EVENT0_IN</t>
+  </si>
+  <si>
+    <t>NET_1588_EVENT0_OUT</t>
+  </si>
+  <si>
+    <t>XBAR1_IN02</t>
+  </si>
+  <si>
+    <t>LEXPWM4_PWMA03</t>
+  </si>
+  <si>
+    <t>XBAR1_IN03</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_DATA03</t>
+  </si>
+  <si>
+    <t>SPDIF_SR_CLK</t>
+  </si>
+  <si>
+    <t>GPIO1_IO20</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA0</t>
+  </si>
+  <si>
+    <t>KPP_ROW05</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO04</t>
+  </si>
+  <si>
+    <t>FLEXSPIB_DATA02</t>
+  </si>
+  <si>
+    <t>GPIO1_IO21</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA1</t>
+  </si>
+  <si>
+    <t>KPP_COL05</t>
+  </si>
+  <si>
+    <t>GPT2_COMPARE1</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO05</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_DATA00</t>
+  </si>
+  <si>
+    <t>ACMP_OUT01</t>
+  </si>
+  <si>
+    <t>CSI_DATA04</t>
+  </si>
+  <si>
+    <t>GPIO1_IO29</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA5</t>
+  </si>
+  <si>
+    <t>KPP_COL01</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT2_IN</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO13</t>
+  </si>
+  <si>
+    <t>FLEXSPIA_DATA01</t>
+  </si>
+  <si>
+    <t>ACMP_OUT00</t>
+  </si>
+  <si>
+    <t>CSI_DATA05</t>
+  </si>
+  <si>
+    <t>GPIO1_IO28</t>
+  </si>
+  <si>
+    <t>USDHC2_DATA4</t>
+  </si>
+  <si>
+    <t>KPP_ROW01</t>
+  </si>
+  <si>
+    <t>ENET2_1588_EVENT2_OUT</t>
+  </si>
+  <si>
+    <t>FLEXIO3_FLEXIO12</t>
+  </si>
+  <si>
+    <t>New T5</t>
+  </si>
+  <si>
+    <t>(SDRAM)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,8 +3434,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,6 +3477,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF15C2FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,11 +3829,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,12 +4073,84 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2191,29 +4544,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:O45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N45">
     <sortCondition ref="B1:B45"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pin" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GPIO" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Serial" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="I2C" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SPI" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PWM" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAN" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Audio" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="XBAR" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FlexIO" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Analog" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SD/CSI/LCD" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pin" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GPIO" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Serial" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="I2C" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SPI" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PWM" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CAN" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Audio" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="XBAR" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FlexIO" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Analog" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SD/CSI/LCD" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6DBDEA4-D5AC-4DF7-8214-E94BDF3699FE}" name="Table468" displayName="Table468" ref="A2:L104" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:L104" xr:uid="{2C4157B9-E38B-485C-A285-A102A142EA99}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L104">
+    <sortCondition ref="A2:A104"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5F8E85B1-BA5A-4D94-A946-1AA34DF764BC}" name="Pin" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BEE072EE-F670-4D9F-BB2F-251BA8986438}" name="Name" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{88634C7B-2F74-4B30-B10F-C2DBBA206339}" name="ALT0" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{52A717EF-C80A-4550-96A5-A5F026ADA2CA}" name="ALt1" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{76A413FB-EA97-4B72-8106-A36041EEE69A}" name="ALT2" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{A2416026-4295-4547-9011-8E0FF579CACC}" name="ALT3" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{771E08A7-9C1B-45F6-B9E0-CDBEAE68D6B1}" name="ALT4" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{7164D065-C7E8-4A62-8F3D-140237053BE1}" name="Alt5" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{DC3C93B9-EFB2-4041-B7F2-30CE1AAD9266}" name="ALT6" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{27C84F18-DB14-4E74-9CB1-11E98CA2F43A}" name="ALT7" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{08BE5462-27DE-4F71-8989-53976B32932A}" name="ALT8" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{51A07896-2801-4B68-83BB-175747634C9D}" name="ALT9" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4145,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6869,4 +9246,3280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254C2799-0169-4DF4-996F-62C067C6B75D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:L103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="23.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>758</v>
+      </c>
+      <c r="F3" s="124" t="s">
+        <v>759</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>761</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>765</v>
+      </c>
+      <c r="I3" s="121"/>
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>751</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>755</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>769</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>760</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>762</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I4" s="121"/>
+      <c r="L4" s="121"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>752</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>771</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>763</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>767</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>757</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>773</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>623</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>764</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>768</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="L6" s="121"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B7" s="121" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="116" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>693</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>789</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>790</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>801</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>802</v>
+      </c>
+      <c r="H13" s="114" t="s">
+        <v>803</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>527</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>805</v>
+      </c>
+      <c r="H14" s="114" t="s">
+        <v>806</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>808</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="G15" s="129" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>809</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>819</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="114" t="s">
+        <v>810</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>822</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>823</v>
+      </c>
+      <c r="H17" s="114" t="s">
+        <v>811</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>825</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>827</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>828</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>479</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>812</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>826</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>830</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="H19" s="114" t="s">
+        <v>813</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>832</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>833</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>834</v>
+      </c>
+      <c r="E21" s="128" t="s">
+        <v>835</v>
+      </c>
+      <c r="F21" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="114" t="s">
+        <v>815</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>839</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>840</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>816</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>843</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" s="111" t="s">
+        <v>844</v>
+      </c>
+      <c r="G23" s="117" t="s">
+        <v>653</v>
+      </c>
+      <c r="H23" s="114" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>846</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>847</v>
+      </c>
+      <c r="G24" s="117" t="s">
+        <v>662</v>
+      </c>
+      <c r="H24" s="114" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>701</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>455</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="H25" s="114" t="s">
+        <v>704</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>849</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="H26" s="114" t="s">
+        <v>852</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" s="112" t="s">
+        <v>709</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="H27" s="114" t="s">
+        <v>712</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>614</v>
+      </c>
+      <c r="E28" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="H28" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>606</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>725</v>
+      </c>
+      <c r="H29" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="E30" s="112" t="s">
+        <v>731</v>
+      </c>
+      <c r="F30" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="G30" s="117" t="s">
+        <v>732</v>
+      </c>
+      <c r="H30" s="114" t="s">
+        <v>733</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>647</v>
+      </c>
+      <c r="E31" s="112" t="s">
+        <v>738</v>
+      </c>
+      <c r="F31" s="115" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>739</v>
+      </c>
+      <c r="H31" s="114" t="s">
+        <v>740</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>745</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>746</v>
+      </c>
+      <c r="F32" s="115" t="s">
+        <v>608</v>
+      </c>
+      <c r="G32" s="117" t="s">
+        <v>747</v>
+      </c>
+      <c r="H32" s="114" t="s">
+        <v>748</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>856</v>
+      </c>
+      <c r="E33" s="112" t="s">
+        <v>857</v>
+      </c>
+      <c r="F33" s="115" t="s">
+        <v>624</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>858</v>
+      </c>
+      <c r="H33" s="114" t="s">
+        <v>859</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>562</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H34" s="114" t="s">
+        <v>566</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>554</v>
+      </c>
+      <c r="E35" s="112" t="s">
+        <v>555</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="H35" s="114" t="s">
+        <v>558</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>869</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>870</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="H36" s="114" t="s">
+        <v>866</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>875</v>
+      </c>
+      <c r="E37" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="H37" s="114" t="s">
+        <v>867</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D38" s="113" t="s">
+        <v>877</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>878</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="H38" s="114" t="s">
+        <v>868</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D39" s="111" t="s">
+        <v>579</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="H39" s="114" t="s">
+        <v>583</v>
+      </c>
+      <c r="I39" s="118" t="s">
+        <v>584</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="L39" s="130" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D40" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>574</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="L40" s="130" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="D41" s="113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="H41" s="114" t="s">
+        <v>887</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L41" s="130" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="D42" s="113" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="H42" s="114" t="s">
+        <v>888</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="L42" s="130"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>896</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>889</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="L43" s="130" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="H44" s="114" t="s">
+        <v>890</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="L44" s="130"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" s="113" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" s="115" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" s="113" t="s">
+        <v>338</v>
+      </c>
+      <c r="H46" s="114" t="s">
+        <v>339</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="116" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>373</v>
+      </c>
+      <c r="H47" s="114" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="111" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" s="112" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>381</v>
+      </c>
+      <c r="H48" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="I48" s="113" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="117" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49" s="112" t="s">
+        <v>388</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="H49" s="114" t="s">
+        <v>391</v>
+      </c>
+      <c r="I49" s="113" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" s="117" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>397</v>
+      </c>
+      <c r="F50" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="H50" s="114" t="s">
+        <v>400</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="116" t="s">
+        <v>405</v>
+      </c>
+      <c r="F51" s="115" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>407</v>
+      </c>
+      <c r="H51" s="114" t="s">
+        <v>408</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="E52" s="110" t="s">
+        <v>413</v>
+      </c>
+      <c r="F52" s="115" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" s="117" t="s">
+        <v>415</v>
+      </c>
+      <c r="H52" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="113" t="s">
+        <v>420</v>
+      </c>
+      <c r="E53" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>422</v>
+      </c>
+      <c r="H53" s="114" t="s">
+        <v>423</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="E54" s="110" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="H54" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D55" s="113" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="112" t="s">
+        <v>436</v>
+      </c>
+      <c r="F55" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H55" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="I55" s="118" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" s="117" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="E56" s="112" t="s">
+        <v>446</v>
+      </c>
+      <c r="F56" s="116" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H56" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="L56" s="117" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" s="119" t="s">
+        <v>455</v>
+      </c>
+      <c r="E57" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="114" t="s">
+        <v>458</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" s="117" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="121" customFormat="1">
+      <c r="A58" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D58" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="E58" s="112" t="s">
+        <v>464</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" s="117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D59" s="113" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="F59" s="119" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="H59" s="114" t="s">
+        <v>474</v>
+      </c>
+      <c r="I59" s="118" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="L59" s="117" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="113" t="s">
+        <v>479</v>
+      </c>
+      <c r="E60" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="F60" s="119" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H60" s="114" t="s">
+        <v>483</v>
+      </c>
+      <c r="I60" s="118" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" s="117" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" s="112" t="s">
+        <v>488</v>
+      </c>
+      <c r="F61" s="116" t="s">
+        <v>489</v>
+      </c>
+      <c r="G61" s="120" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61" s="114" t="s">
+        <v>491</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" s="117" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E62" s="112" t="s">
+        <v>498</v>
+      </c>
+      <c r="F62" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" s="120" t="s">
+        <v>500</v>
+      </c>
+      <c r="H62" s="114" t="s">
+        <v>501</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" s="117" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="E63" s="110" t="s">
+        <v>413</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" s="120" t="s">
+        <v>508</v>
+      </c>
+      <c r="H63" s="114" t="s">
+        <v>509</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="L63" s="117" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D64" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="E64" s="110" t="s">
+        <v>428</v>
+      </c>
+      <c r="F64" s="116" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" s="120" t="s">
+        <v>515</v>
+      </c>
+      <c r="H64" s="114" t="s">
+        <v>516</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" s="117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" s="112" t="s">
+        <v>521</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" s="113" t="s">
+        <v>523</v>
+      </c>
+      <c r="H65" s="114" t="s">
+        <v>524</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="119" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="112" t="s">
+        <v>528</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="H66" s="114" t="s">
+        <v>530</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E67" s="115" t="s">
+        <v>544</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" s="120" t="s">
+        <v>546</v>
+      </c>
+      <c r="H67" s="114" t="s">
+        <v>547</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="L67" s="117" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D68" s="111" t="s">
+        <v>589</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="F68" s="116" t="s">
+        <v>591</v>
+      </c>
+      <c r="G68" s="117" t="s">
+        <v>592</v>
+      </c>
+      <c r="H68" s="114" t="s">
+        <v>593</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="132" t="s">
+        <v>603</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C69" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="D69" s="113" t="s">
+        <v>606</v>
+      </c>
+      <c r="E69" s="112" t="s">
+        <v>607</v>
+      </c>
+      <c r="F69" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="G69" s="115" t="s">
+        <v>608</v>
+      </c>
+      <c r="H69" s="114" t="s">
+        <v>609</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="132" t="s">
+        <v>611</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C70" s="118" t="s">
+        <v>613</v>
+      </c>
+      <c r="D70" s="113" t="s">
+        <v>614</v>
+      </c>
+      <c r="E70" s="112" t="s">
+        <v>615</v>
+      </c>
+      <c r="F70" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="G70" s="115" t="s">
+        <v>616</v>
+      </c>
+      <c r="H70" s="114" t="s">
+        <v>617</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="132" t="s">
+        <v>619</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C71" s="118" t="s">
+        <v>621</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>622</v>
+      </c>
+      <c r="E71" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="111" t="s">
+        <v>623</v>
+      </c>
+      <c r="G71" s="115" t="s">
+        <v>624</v>
+      </c>
+      <c r="H71" s="114" t="s">
+        <v>625</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="132" t="s">
+        <v>629</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C72" s="118" t="s">
+        <v>631</v>
+      </c>
+      <c r="D72" s="113" t="s">
+        <v>632</v>
+      </c>
+      <c r="E72" s="119" t="s">
+        <v>455</v>
+      </c>
+      <c r="F72" s="111" t="s">
+        <v>633</v>
+      </c>
+      <c r="G72" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="H72" s="114" t="s">
+        <v>635</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="132" t="s">
+        <v>637</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73" s="118" t="s">
+        <v>639</v>
+      </c>
+      <c r="D73" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="E73" s="112" t="s">
+        <v>488</v>
+      </c>
+      <c r="F73" s="111" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="H73" s="114" t="s">
+        <v>642</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="132" t="s">
+        <v>644</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C74" s="118" t="s">
+        <v>646</v>
+      </c>
+      <c r="D74" s="113" t="s">
+        <v>647</v>
+      </c>
+      <c r="E74" s="112" t="s">
+        <v>498</v>
+      </c>
+      <c r="F74" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="H74" s="114" t="s">
+        <v>649</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D75" s="113" t="s">
+        <v>653</v>
+      </c>
+      <c r="E75" s="119" t="s">
+        <v>654</v>
+      </c>
+      <c r="F75" s="111" t="s">
+        <v>655</v>
+      </c>
+      <c r="G75" s="117" t="s">
+        <v>656</v>
+      </c>
+      <c r="H75" s="114" t="s">
+        <v>657</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D76" s="113" t="s">
+        <v>662</v>
+      </c>
+      <c r="E76" s="119" t="s">
+        <v>663</v>
+      </c>
+      <c r="F76" s="111" t="s">
+        <v>664</v>
+      </c>
+      <c r="G76" s="117" t="s">
+        <v>665</v>
+      </c>
+      <c r="H76" s="114" t="s">
+        <v>666</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="D77" s="113" t="s">
+        <v>479</v>
+      </c>
+      <c r="E77" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="111" t="s">
+        <v>671</v>
+      </c>
+      <c r="G77" s="117" t="s">
+        <v>672</v>
+      </c>
+      <c r="H77" s="114" t="s">
+        <v>673</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D78" s="113" t="s">
+        <v>470</v>
+      </c>
+      <c r="E78" s="113" t="s">
+        <v>678</v>
+      </c>
+      <c r="F78" s="111" t="s">
+        <v>679</v>
+      </c>
+      <c r="G78" s="117" t="s">
+        <v>680</v>
+      </c>
+      <c r="H78" s="114" t="s">
+        <v>681</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D79" s="113" t="s">
+        <v>435</v>
+      </c>
+      <c r="E79" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" s="112" t="s">
+        <v>464</v>
+      </c>
+      <c r="G79" s="117" t="s">
+        <v>686</v>
+      </c>
+      <c r="H79" s="114" t="s">
+        <v>687</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="D80" s="113" t="s">
+        <v>692</v>
+      </c>
+      <c r="E80" s="113" t="s">
+        <v>693</v>
+      </c>
+      <c r="F80" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="G80" s="117" t="s">
+        <v>694</v>
+      </c>
+      <c r="H80" s="114" t="s">
+        <v>695</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="131" t="s">
+        <v>914</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="D81" s="111" t="s">
+        <v>925</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="F81" s="116" t="s">
+        <v>489</v>
+      </c>
+      <c r="G81" s="117" t="s">
+        <v>918</v>
+      </c>
+      <c r="H81" s="114" t="s">
+        <v>921</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="131" t="s">
+        <v>706</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D82" s="111" t="s">
+        <v>926</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="F82" s="116" t="s">
+        <v>930</v>
+      </c>
+      <c r="G82" s="117" t="s">
+        <v>919</v>
+      </c>
+      <c r="H82" s="114" t="s">
+        <v>922</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="131" t="s">
+        <v>728</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="F83" s="116" t="s">
+        <v>535</v>
+      </c>
+      <c r="G83" s="117" t="s">
+        <v>951</v>
+      </c>
+      <c r="H83" s="114" t="s">
+        <v>965</v>
+      </c>
+      <c r="I83" s="113" t="s">
+        <v>839</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="L83" s="117" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="131" t="s">
+        <v>735</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D84" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="112" t="s">
+        <v>979</v>
+      </c>
+      <c r="F84" s="116" t="s">
+        <v>545</v>
+      </c>
+      <c r="G84" s="117" t="s">
+        <v>952</v>
+      </c>
+      <c r="H84" s="114" t="s">
+        <v>966</v>
+      </c>
+      <c r="I84" s="113" t="s">
+        <v>980</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="L84" s="117" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="131" t="s">
+        <v>698</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="D85" s="111" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" s="112" t="s">
+        <v>983</v>
+      </c>
+      <c r="F85" s="116" t="s">
+        <v>984</v>
+      </c>
+      <c r="G85" s="117" t="s">
+        <v>953</v>
+      </c>
+      <c r="H85" s="114" t="s">
+        <v>967</v>
+      </c>
+      <c r="I85" s="130"/>
+      <c r="K85" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="L85" s="117" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="131" t="s">
+        <v>721</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="E86" s="112" t="s">
+        <v>987</v>
+      </c>
+      <c r="F86" s="116" t="s">
+        <v>988</v>
+      </c>
+      <c r="G86" s="117" t="s">
+        <v>954</v>
+      </c>
+      <c r="H86" s="114" t="s">
+        <v>968</v>
+      </c>
+      <c r="I86" s="130"/>
+      <c r="K86" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="L86" s="117" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="131" t="s">
+        <v>714</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" s="112" t="s">
+        <v>991</v>
+      </c>
+      <c r="F87" s="116" t="s">
+        <v>850</v>
+      </c>
+      <c r="G87" s="117" t="s">
+        <v>955</v>
+      </c>
+      <c r="H87" s="114" t="s">
+        <v>969</v>
+      </c>
+      <c r="I87" s="130"/>
+      <c r="K87" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="L87" s="117" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="131" t="s">
+        <v>742</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="D88" s="111" t="s">
+        <v>429</v>
+      </c>
+      <c r="E88" s="112" t="s">
+        <v>996</v>
+      </c>
+      <c r="F88" s="116" t="s">
+        <v>993</v>
+      </c>
+      <c r="G88" s="117" t="s">
+        <v>956</v>
+      </c>
+      <c r="H88" s="114" t="s">
+        <v>970</v>
+      </c>
+      <c r="I88" s="130"/>
+      <c r="K88" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="L88" s="117" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="131" t="s">
+        <v>932</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>995</v>
+      </c>
+      <c r="E89" s="112" t="s">
+        <v>997</v>
+      </c>
+      <c r="F89" s="116" t="s">
+        <v>998</v>
+      </c>
+      <c r="G89" s="117" t="s">
+        <v>957</v>
+      </c>
+      <c r="H89" s="114" t="s">
+        <v>971</v>
+      </c>
+      <c r="I89" s="130"/>
+      <c r="K89" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="L89" s="117" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="131" t="s">
+        <v>933</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>703</v>
+      </c>
+      <c r="E90" s="112" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F90" s="116" t="s">
+        <v>710</v>
+      </c>
+      <c r="G90" s="117" t="s">
+        <v>958</v>
+      </c>
+      <c r="H90" s="114" t="s">
+        <v>972</v>
+      </c>
+      <c r="I90" s="130"/>
+      <c r="K90" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="L90" s="117" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="131" t="s">
+        <v>934</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D91" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="E91" s="112" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F91" s="116" t="s">
+        <v>717</v>
+      </c>
+      <c r="G91" s="117" t="s">
+        <v>959</v>
+      </c>
+      <c r="H91" s="114" t="s">
+        <v>973</v>
+      </c>
+      <c r="I91" s="130" t="s">
+        <v>718</v>
+      </c>
+      <c r="L91" s="117" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="131" t="s">
+        <v>935</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="D92" s="111" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E92" s="112" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F92" s="116" t="s">
+        <v>724</v>
+      </c>
+      <c r="G92" s="117" t="s">
+        <v>960</v>
+      </c>
+      <c r="H92" s="114" t="s">
+        <v>974</v>
+      </c>
+      <c r="I92" s="130" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L92" s="117" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="131" t="s">
+        <v>936</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E93" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="116" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G93" s="117" t="s">
+        <v>961</v>
+      </c>
+      <c r="H93" s="114" t="s">
+        <v>975</v>
+      </c>
+      <c r="I93" s="130" t="s">
+        <v>439</v>
+      </c>
+      <c r="L93" s="117" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="131" t="s">
+        <v>937</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D94" s="111" t="s">
+        <v>709</v>
+      </c>
+      <c r="E94" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="116" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G94" s="117" t="s">
+        <v>962</v>
+      </c>
+      <c r="H94" s="114" t="s">
+        <v>976</v>
+      </c>
+      <c r="I94" s="130" t="s">
+        <v>584</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="L94" s="117" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="131" t="s">
+        <v>938</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D95" s="111" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" s="116" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G95" s="117" t="s">
+        <v>963</v>
+      </c>
+      <c r="H95" s="114" t="s">
+        <v>977</v>
+      </c>
+      <c r="I95" s="130" t="s">
+        <v>475</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="L95" s="117" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="131" t="s">
+        <v>939</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E96" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" s="116" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G96" s="117" t="s">
+        <v>964</v>
+      </c>
+      <c r="H96" s="114" t="s">
+        <v>978</v>
+      </c>
+      <c r="I96" s="130" t="s">
+        <v>870</v>
+      </c>
+      <c r="L96" s="117" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="131" t="s">
+        <v>913</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>915</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="F97" s="116" t="s">
+        <v>514</v>
+      </c>
+      <c r="G97" s="117" t="s">
+        <v>917</v>
+      </c>
+      <c r="H97" s="114" t="s">
+        <v>920</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>827</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G98" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98" s="114" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="L98" s="117" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>830</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="H99" s="114" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L99" s="117" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E100" s="115" t="s">
+        <v>333</v>
+      </c>
+      <c r="F100" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" s="120" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H100" s="114" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L100" s="117" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E101" s="115" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="120" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H101" s="114" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L101" s="117" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E102" s="115" t="s">
+        <v>534</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G102" s="120" t="s">
+        <v>536</v>
+      </c>
+      <c r="H102" s="114" t="s">
+        <v>537</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="L102" s="117" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="10" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EVKB_1060\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E012787-40B5-4B42-9195-F3DE2F2915C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50528214-1300-4CD8-B4CA-46641D7B50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="510" windowWidth="25725" windowHeight="18630" tabRatio="400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="540" windowWidth="29535" windowHeight="18630" tabRatio="400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,9 +1491,6 @@
     <t>FLEXIO3_FLEXIO02</t>
   </si>
   <si>
-    <t>15/A1</t>
-  </si>
-  <si>
     <t>AD_B1_03</t>
   </si>
   <si>
@@ -3301,6 +3298,9 @@
   </si>
   <si>
     <t>(SDRAM)</t>
+  </si>
+  <si>
+    <t>New T5 15/A1</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3530,12 +3530,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF33"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3549,6 +3543,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4064,15 +4070,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4083,19 +4080,28 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4117,15 +4123,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4577,18 +4583,18 @@
     <sortCondition ref="A2:A104"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5F8E85B1-BA5A-4D94-A946-1AA34DF764BC}" name="Pin" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{BEE072EE-F670-4D9F-BB2F-251BA8986438}" name="Name" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{88634C7B-2F74-4B30-B10F-C2DBBA206339}" name="ALT0" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{52A717EF-C80A-4550-96A5-A5F026ADA2CA}" name="ALt1" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{76A413FB-EA97-4B72-8106-A36041EEE69A}" name="ALT2" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{A2416026-4295-4547-9011-8E0FF579CACC}" name="ALT3" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{771E08A7-9C1B-45F6-B9E0-CDBEAE68D6B1}" name="ALT4" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{7164D065-C7E8-4A62-8F3D-140237053BE1}" name="Alt5" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{DC3C93B9-EFB2-4041-B7F2-30CE1AAD9266}" name="ALT6" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{27C84F18-DB14-4E74-9CB1-11E98CA2F43A}" name="ALT7" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{08BE5462-27DE-4F71-8989-53976B32932A}" name="ALT8" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{51A07896-2801-4B68-83BB-175747634C9D}" name="ALT9" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5F8E85B1-BA5A-4D94-A946-1AA34DF764BC}" name="Pin" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BEE072EE-F670-4D9F-BB2F-251BA8986438}" name="Name" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{88634C7B-2F74-4B30-B10F-C2DBBA206339}" name="ALT0" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{52A717EF-C80A-4550-96A5-A5F026ADA2CA}" name="ALt1" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{76A413FB-EA97-4B72-8106-A36041EEE69A}" name="ALT2" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{A2416026-4295-4547-9011-8E0FF579CACC}" name="ALT3" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{771E08A7-9C1B-45F6-B9E0-CDBEAE68D6B1}" name="ALT4" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{7164D065-C7E8-4A62-8F3D-140237053BE1}" name="Alt5" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{DC3C93B9-EFB2-4041-B7F2-30CE1AAD9266}" name="ALT6" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{27C84F18-DB14-4E74-9CB1-11E98CA2F43A}" name="ALT7" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{08BE5462-27DE-4F71-8989-53976B32932A}" name="ALT8" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{51A07896-2801-4B68-83BB-175747634C9D}" name="ALT9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9105,21 +9111,21 @@
       <c r="M10" s="96"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="130"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="86" t="s">
@@ -9255,13 +9261,14 @@
   </sheetPr>
   <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="10" customWidth="1"/>
     <col min="5" max="6" width="23.85546875" style="10" customWidth="1"/>
@@ -9313,149 +9320,149 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>750</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>754</v>
-      </c>
-      <c r="D3" s="122" t="s">
-        <v>507</v>
-      </c>
-      <c r="E3" s="127" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" s="123" t="s">
+        <v>757</v>
+      </c>
+      <c r="F3" s="120" t="s">
         <v>758</v>
       </c>
-      <c r="F3" s="124" t="s">
-        <v>759</v>
-      </c>
-      <c r="G3" s="125" t="s">
-        <v>761</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>765</v>
-      </c>
-      <c r="I3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="G3" s="121" t="s">
+        <v>760</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>764</v>
+      </c>
+      <c r="I3" s="117"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>751</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>755</v>
-      </c>
-      <c r="D4" s="122" t="s">
-        <v>770</v>
-      </c>
-      <c r="E4" s="127" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>750</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4" s="118" t="s">
         <v>769</v>
       </c>
-      <c r="F4" s="124" t="s">
-        <v>760</v>
-      </c>
-      <c r="G4" s="125" t="s">
-        <v>762</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>766</v>
-      </c>
-      <c r="I4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="E4" s="123" t="s">
+        <v>768</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>759</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>761</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>765</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B5" s="121" t="s">
-        <v>752</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>756</v>
-      </c>
-      <c r="D5" s="122" t="s">
-        <v>513</v>
-      </c>
-      <c r="E5" s="127" t="s">
-        <v>771</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>633</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>763</v>
-      </c>
-      <c r="H5" s="126" t="s">
-        <v>767</v>
-      </c>
-      <c r="I5" s="121"/>
-      <c r="L5" s="121"/>
+        <v>1045</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="123" t="s">
+        <v>770</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>762</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>766</v>
+      </c>
+      <c r="I5" s="117"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B6" s="121" t="s">
-        <v>753</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>757</v>
-      </c>
-      <c r="D6" s="122" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>752</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="123" t="s">
         <v>772</v>
       </c>
-      <c r="E6" s="127" t="s">
-        <v>773</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>623</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>764</v>
-      </c>
-      <c r="H6" s="126" t="s">
-        <v>768</v>
-      </c>
-      <c r="I6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="F6" s="120" t="s">
+        <v>622</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>763</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>767</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B7" s="121" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B7" s="117" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="118" t="s">
         <v>344</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="120" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>349</v>
@@ -9463,25 +9470,25 @@
       <c r="C8" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="108" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="114" t="s">
         <v>354</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="111" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>356</v>
@@ -9489,51 +9496,51 @@
       <c r="C9" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="111" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="110" t="s">
         <v>597</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="E10" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="F10" s="108" t="s">
         <v>599</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="114" t="s">
         <v>600</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="H10" s="111" t="s">
         <v>601</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>363</v>
@@ -9541,765 +9548,765 @@
       <c r="C11" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="110" t="s">
         <v>365</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="111" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>692</v>
+      </c>
+      <c r="E12" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="D12" s="113" t="s">
-        <v>693</v>
-      </c>
-      <c r="E12" s="116" t="s">
+      <c r="F12" s="108" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="114" t="s">
         <v>788</v>
       </c>
-      <c r="F12" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="117" t="s">
+      <c r="H12" s="111" t="s">
         <v>789</v>
       </c>
-      <c r="H12" s="114" t="s">
+      <c r="K12" s="10" t="s">
         <v>790</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="D13" s="113" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="113" t="s">
+        <v>800</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="114" t="s">
         <v>801</v>
       </c>
-      <c r="F13" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="117" t="s">
+      <c r="H13" s="111" t="s">
         <v>802</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="K13" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="D14" s="113" t="s">
+        <v>792</v>
+      </c>
+      <c r="D14" s="110" t="s">
         <v>397</v>
       </c>
-      <c r="E14" s="116" t="s">
-        <v>527</v>
-      </c>
-      <c r="F14" s="111" t="s">
-        <v>502</v>
-      </c>
-      <c r="G14" s="117" t="s">
+      <c r="E14" s="113" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="114" t="s">
+        <v>804</v>
+      </c>
+      <c r="H14" s="111" t="s">
         <v>805</v>
       </c>
-      <c r="H14" s="114" t="s">
+      <c r="K14" s="10" t="s">
         <v>806</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="D15" s="111" t="s">
+        <v>793</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>807</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="125" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="111" t="s">
         <v>808</v>
       </c>
-      <c r="E15" s="116" t="s">
-        <v>520</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>584</v>
-      </c>
-      <c r="G15" s="129" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" s="114" t="s">
-        <v>809</v>
-      </c>
       <c r="K15" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D16" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>818</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="111" t="s">
+        <v>809</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>819</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>405</v>
-      </c>
-      <c r="G16" s="129" t="s">
-        <v>383</v>
-      </c>
-      <c r="H16" s="114" t="s">
-        <v>810</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="D17" s="111" t="s">
+        <v>795</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>821</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="114" t="s">
         <v>822</v>
       </c>
-      <c r="E17" s="128" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="117" t="s">
+      <c r="H17" s="111" t="s">
+        <v>810</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>823</v>
-      </c>
-      <c r="H17" s="114" t="s">
-        <v>811</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>825</v>
-      </c>
-      <c r="E18" s="128" t="s">
+        <v>796</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>824</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>826</v>
+      </c>
+      <c r="F18" s="108" t="s">
         <v>827</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="G18" s="114" t="s">
+        <v>478</v>
+      </c>
+      <c r="H18" s="111" t="s">
+        <v>811</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>828</v>
-      </c>
-      <c r="G18" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="H18" s="114" t="s">
-        <v>812</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>826</v>
-      </c>
-      <c r="E19" s="128" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>825</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>829</v>
+      </c>
+      <c r="F19" s="108" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="114" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>812</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>830</v>
-      </c>
-      <c r="F19" s="111" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>470</v>
-      </c>
-      <c r="H19" s="114" t="s">
-        <v>813</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="D20" s="113" t="s">
+        <v>798</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>831</v>
+      </c>
+      <c r="E20" s="124" t="s">
         <v>832</v>
       </c>
-      <c r="E20" s="128" t="s">
-        <v>833</v>
-      </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="108" t="s">
         <v>413</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="H20" s="114" t="s">
-        <v>814</v>
+      <c r="H20" s="111" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="D21" s="113" t="s">
+        <v>799</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>833</v>
+      </c>
+      <c r="E21" s="124" t="s">
         <v>834</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="F21" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" s="111" t="s">
+        <v>814</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="F21" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="G21" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="H21" s="114" t="s">
-        <v>815</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D22" s="110" t="s">
         <v>838</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="E22" s="124" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="108" t="s">
         <v>839</v>
       </c>
-      <c r="E22" s="128" t="s">
-        <v>388</v>
-      </c>
-      <c r="F22" s="111" t="s">
+      <c r="G22" s="114" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="111" t="s">
+        <v>815</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>840</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="114" t="s">
-        <v>816</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="D23" s="110" t="s">
         <v>842</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="E23" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" s="108" t="s">
         <v>843</v>
       </c>
-      <c r="E23" s="128" t="s">
-        <v>379</v>
-      </c>
-      <c r="F23" s="111" t="s">
-        <v>844</v>
-      </c>
-      <c r="G23" s="117" t="s">
-        <v>653</v>
-      </c>
-      <c r="H23" s="114" t="s">
-        <v>817</v>
+      <c r="G23" s="114" t="s">
+        <v>652</v>
+      </c>
+      <c r="H23" s="111" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="D24" s="110" t="s">
         <v>845</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="E24" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="F24" s="108" t="s">
         <v>846</v>
       </c>
-      <c r="E24" s="116" t="s">
-        <v>463</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>847</v>
-      </c>
-      <c r="G24" s="117" t="s">
-        <v>662</v>
-      </c>
-      <c r="H24" s="114" t="s">
-        <v>818</v>
+      <c r="G24" s="114" t="s">
+        <v>661</v>
+      </c>
+      <c r="H24" s="111" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="110" t="s">
         <v>700</v>
       </c>
-      <c r="D25" s="113" t="s">
+      <c r="E25" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="E25" s="119" t="s">
-        <v>455</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="111" t="s">
         <v>703</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="K25" s="10" t="s">
         <v>704</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>631</v>
+      </c>
+      <c r="E26" s="116" t="s">
         <v>848</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="D26" s="113" t="s">
-        <v>632</v>
-      </c>
-      <c r="E26" s="119" t="s">
+      <c r="F26" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="111" t="s">
         <v>851</v>
       </c>
-      <c r="H26" s="114" t="s">
+      <c r="K26" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="110" t="s">
+        <v>621</v>
+      </c>
+      <c r="E27" s="109" t="s">
         <v>708</v>
       </c>
-      <c r="D27" s="113" t="s">
-        <v>622</v>
-      </c>
-      <c r="E27" s="112" t="s">
+      <c r="F27" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="111" t="s">
         <v>711</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="K27" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="110" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>336</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="D28" s="113" t="s">
-        <v>614</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="111" t="s">
         <v>718</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="K28" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="110" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="D29" s="113" t="s">
-        <v>606</v>
-      </c>
-      <c r="E29" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="114" t="s">
         <v>724</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="H29" s="111" t="s">
         <v>725</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="K29" s="10" t="s">
         <v>726</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="110" t="s">
+        <v>639</v>
+      </c>
+      <c r="E30" s="109" t="s">
         <v>730</v>
       </c>
-      <c r="D30" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E30" s="112" t="s">
+      <c r="F30" s="112" t="s">
+        <v>633</v>
+      </c>
+      <c r="G30" s="114" t="s">
         <v>731</v>
       </c>
-      <c r="F30" s="115" t="s">
-        <v>634</v>
-      </c>
-      <c r="G30" s="117" t="s">
+      <c r="H30" s="111" t="s">
         <v>732</v>
       </c>
-      <c r="H30" s="114" t="s">
+      <c r="K30" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="E31" s="109" t="s">
         <v>737</v>
       </c>
-      <c r="D31" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="E31" s="112" t="s">
+      <c r="F31" s="112" t="s">
+        <v>615</v>
+      </c>
+      <c r="G31" s="114" t="s">
         <v>738</v>
       </c>
-      <c r="F31" s="115" t="s">
-        <v>616</v>
-      </c>
-      <c r="G31" s="117" t="s">
+      <c r="H31" s="111" t="s">
         <v>739</v>
       </c>
-      <c r="H31" s="114" t="s">
+      <c r="K31" s="10" t="s">
         <v>740</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="110" t="s">
         <v>744</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="E32" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="F32" s="112" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="114" t="s">
         <v>746</v>
       </c>
-      <c r="F32" s="115" t="s">
-        <v>608</v>
-      </c>
-      <c r="G32" s="117" t="s">
+      <c r="H32" s="111" t="s">
         <v>747</v>
       </c>
-      <c r="H32" s="114" t="s">
+      <c r="K32" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="110" t="s">
         <v>855</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="E33" s="109" t="s">
         <v>856</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="F33" s="112" t="s">
+        <v>623</v>
+      </c>
+      <c r="G33" s="132" t="s">
         <v>857</v>
       </c>
-      <c r="F33" s="115" t="s">
-        <v>624</v>
-      </c>
-      <c r="G33" s="130" t="s">
+      <c r="H33" s="111" t="s">
         <v>858</v>
       </c>
-      <c r="H33" s="114" t="s">
-        <v>859</v>
-      </c>
       <c r="K33" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="110" t="s">
         <v>561</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="E34" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="E34" s="112" t="s">
+      <c r="F34" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="132" t="s">
         <v>564</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="H34" s="114" t="s">
+      <c r="K34" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="110" t="s">
         <v>553</v>
       </c>
-      <c r="D35" s="113" t="s">
+      <c r="E35" s="109" t="s">
         <v>554</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="F35" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="132" t="s">
         <v>556</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="111" t="s">
         <v>557</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="K35" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="D36" s="113" t="s">
+        <v>862</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>868</v>
+      </c>
+      <c r="E36" s="109" t="s">
         <v>869</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="F36" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="132" t="s">
         <v>871</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>872</v>
-      </c>
-      <c r="H36" s="114" t="s">
-        <v>866</v>
+      <c r="H36" s="111" t="s">
+        <v>865</v>
       </c>
       <c r="K36" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="D37" s="113" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>874</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="E37" s="112" t="s">
-        <v>475</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="H37" s="114" t="s">
-        <v>867</v>
+      <c r="G37" s="132" t="s">
+        <v>872</v>
+      </c>
+      <c r="H37" s="111" t="s">
+        <v>866</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>393</v>
@@ -10307,28 +10314,28 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D38" s="113" t="s">
+        <v>864</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="E38" s="109" t="s">
         <v>877</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="F38" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="H38" s="114" t="s">
-        <v>868</v>
+      <c r="G38" s="132" t="s">
+        <v>873</v>
+      </c>
+      <c r="H38" s="111" t="s">
+        <v>867</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>439</v>
@@ -10339,291 +10346,289 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="108" t="s">
         <v>578</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="E39" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="132" t="s">
         <v>581</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="111" t="s">
         <v>582</v>
       </c>
-      <c r="H39" s="114" t="s">
+      <c r="I39" s="115" t="s">
         <v>583</v>
       </c>
-      <c r="I39" s="118" t="s">
+      <c r="K39" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>585</v>
-      </c>
-      <c r="L39" s="130" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="108" t="s">
         <v>569</v>
       </c>
-      <c r="D40" s="111" t="s">
+      <c r="E40" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="132" t="s">
         <v>572</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="111" t="s">
         <v>573</v>
       </c>
-      <c r="H40" s="114" t="s">
+      <c r="I40" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="K40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="L40" s="130" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="D41" s="113" t="s">
-        <v>392</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="132" t="s">
         <v>885</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="111" t="s">
         <v>886</v>
       </c>
-      <c r="H41" s="114" t="s">
-        <v>887</v>
-      </c>
       <c r="I41" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L41" s="130" t="s">
-        <v>636</v>
+      <c r="L41" s="10" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D42" s="113" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="H42" s="114" t="s">
-        <v>888</v>
+      <c r="H42" s="111" t="s">
+        <v>887</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="L42" s="130"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="D43" s="110" t="s">
         <v>895</v>
       </c>
-      <c r="D43" s="113" t="s">
+      <c r="E43" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="H43" s="114" t="s">
-        <v>889</v>
+      <c r="H43" s="111" t="s">
+        <v>888</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="L43" s="130" t="s">
-        <v>723</v>
+        <v>501</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="D44" s="113" t="s">
-        <v>452</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>902</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>903</v>
-      </c>
-      <c r="H44" s="114" t="s">
-        <v>890</v>
+      <c r="H44" s="111" t="s">
+        <v>889</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="L44" s="130"/>
+        <v>474</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="130" t="s">
+      <c r="C45" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="109" t="s">
         <v>328</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="H45" s="114" t="s">
+      <c r="H45" s="111" t="s">
         <v>331</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="J45" s="115" t="s">
+      <c r="J45" s="112" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="109" t="s">
         <v>336</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="H46" s="114" t="s">
+      <c r="H46" s="111" t="s">
         <v>339</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J46" s="115" t="s">
+      <c r="J46" s="112" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="131" t="s">
         <v>369</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="F47" s="116" t="s">
+      <c r="F47" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="H47" s="114" t="s">
+      <c r="H47" s="111" t="s">
         <v>374</v>
       </c>
       <c r="I47" s="10" t="s">
@@ -10635,97 +10640,97 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="D48" s="111" t="s">
+      <c r="D48" s="108" t="s">
         <v>378</v>
       </c>
-      <c r="E48" s="112" t="s">
+      <c r="E48" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="G48" s="117" t="s">
+      <c r="G48" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="H48" s="114" t="s">
+      <c r="H48" s="111" t="s">
         <v>382</v>
       </c>
-      <c r="I48" s="113" t="s">
+      <c r="I48" s="110" t="s">
         <v>383</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L48" s="117" t="s">
+      <c r="L48" s="114" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="131" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="108" t="s">
         <v>387</v>
       </c>
-      <c r="E49" s="112" t="s">
+      <c r="E49" s="109" t="s">
         <v>388</v>
       </c>
-      <c r="F49" s="116" t="s">
+      <c r="F49" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="H49" s="114" t="s">
+      <c r="H49" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="I49" s="113" t="s">
+      <c r="I49" s="110" t="s">
         <v>392</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="L49" s="117" t="s">
+      <c r="L49" s="114" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="131" t="s">
         <v>395</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="110" t="s">
         <v>397</v>
       </c>
-      <c r="F50" s="116" t="s">
+      <c r="F50" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="H50" s="114" t="s">
+      <c r="H50" s="111" t="s">
         <v>400</v>
       </c>
       <c r="I50" s="10" t="s">
@@ -10742,22 +10747,22 @@
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="131" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="110" t="s">
         <v>404</v>
       </c>
-      <c r="E51" s="116" t="s">
+      <c r="E51" s="113" t="s">
         <v>405</v>
       </c>
-      <c r="F51" s="115" t="s">
+      <c r="F51" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="H51" s="114" t="s">
+      <c r="H51" s="111" t="s">
         <v>408</v>
       </c>
       <c r="I51" s="10" t="s">
@@ -10774,22 +10779,22 @@
       <c r="B52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="E52" s="110" t="s">
+      <c r="E52" s="107" t="s">
         <v>413</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="G52" s="117" t="s">
+      <c r="G52" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="H52" s="114" t="s">
+      <c r="H52" s="111" t="s">
         <v>416</v>
       </c>
       <c r="I52" s="10" t="s">
@@ -10806,22 +10811,22 @@
       <c r="B53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="E53" s="116" t="s">
+      <c r="E53" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="115" t="s">
+      <c r="F53" s="112" t="s">
         <v>421</v>
       </c>
-      <c r="G53" s="117" t="s">
+      <c r="G53" s="114" t="s">
         <v>422</v>
       </c>
-      <c r="H53" s="114" t="s">
+      <c r="H53" s="111" t="s">
         <v>423</v>
       </c>
       <c r="I53" s="10" t="s">
@@ -10838,22 +10843,22 @@
       <c r="B54" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="131" t="s">
         <v>306</v>
       </c>
-      <c r="D54" s="113" t="s">
+      <c r="D54" s="110" t="s">
         <v>427</v>
       </c>
-      <c r="E54" s="110" t="s">
+      <c r="E54" s="107" t="s">
         <v>428</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="G54" s="117" t="s">
+      <c r="G54" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="H54" s="114" t="s">
+      <c r="H54" s="111" t="s">
         <v>431</v>
       </c>
       <c r="I54" s="10" t="s">
@@ -10873,22 +10878,22 @@
       <c r="C55" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="110" t="s">
         <v>435</v>
       </c>
-      <c r="E55" s="112" t="s">
+      <c r="E55" s="109" t="s">
         <v>436</v>
       </c>
-      <c r="F55" s="116" t="s">
+      <c r="F55" s="113" t="s">
         <v>68</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="H55" s="114" t="s">
+      <c r="H55" s="111" t="s">
         <v>438</v>
       </c>
-      <c r="I55" s="118" t="s">
+      <c r="I55" s="115" t="s">
         <v>439</v>
       </c>
       <c r="J55" s="10" t="s">
@@ -10897,1620 +10902,1614 @@
       <c r="K55" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="L55" s="117" t="s">
+      <c r="L55" s="114" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="10" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>444</v>
+        <v>158</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>445</v>
-      </c>
-      <c r="E56" s="112" t="s">
-        <v>446</v>
-      </c>
-      <c r="F56" s="116" t="s">
-        <v>447</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="H56" s="114" t="s">
-        <v>449</v>
+        <v>453</v>
+      </c>
+      <c r="D56" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E56" s="109" t="s">
+        <v>455</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" s="132" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="111" t="s">
+        <v>457</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="L56" s="117" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>459</v>
+      </c>
+      <c r="L56" s="114" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="117" customFormat="1">
       <c r="A57" s="10" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D57" s="119" t="s">
-        <v>455</v>
-      </c>
-      <c r="E57" s="112" t="s">
-        <v>456</v>
+        <v>461</v>
+      </c>
+      <c r="D57" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>463</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G57" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="H57" s="114" t="s">
-        <v>458</v>
+        <v>74</v>
+      </c>
+      <c r="G57" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="111" t="s">
+        <v>464</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>163</v>
+        <v>465</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="L57" s="117" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="121" customFormat="1">
+        <v>467</v>
+      </c>
+      <c r="L57" s="114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D58" s="119" t="s">
-        <v>463</v>
-      </c>
-      <c r="E58" s="112" t="s">
-        <v>464</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="114" t="s">
-        <v>465</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>466</v>
+        <v>337</v>
+      </c>
+      <c r="D58" s="110" t="s">
+        <v>469</v>
+      </c>
+      <c r="E58" s="109" t="s">
+        <v>470</v>
+      </c>
+      <c r="F58" s="116" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="H58" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="I58" s="115" t="s">
+        <v>474</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="L58" s="117" t="s">
-        <v>469</v>
+        <v>433</v>
+      </c>
+      <c r="L58" s="114" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="113" t="s">
-        <v>470</v>
-      </c>
-      <c r="E59" s="112" t="s">
-        <v>471</v>
-      </c>
-      <c r="F59" s="119" t="s">
-        <v>472</v>
+        <v>477</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="E59" s="109" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="116" t="s">
+        <v>480</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="H59" s="114" t="s">
-        <v>474</v>
-      </c>
-      <c r="I59" s="118" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="H59" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="I59" s="115" t="s">
+        <v>483</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L59" s="117" t="s">
-        <v>477</v>
+        <v>418</v>
+      </c>
+      <c r="L59" s="114" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="10" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D60" s="113" t="s">
-        <v>479</v>
-      </c>
-      <c r="E60" s="112" t="s">
-        <v>480</v>
-      </c>
-      <c r="F60" s="119" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H60" s="114" t="s">
-        <v>483</v>
-      </c>
-      <c r="I60" s="118" t="s">
-        <v>484</v>
+      <c r="E60" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="F60" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" s="132" t="s">
+        <v>489</v>
+      </c>
+      <c r="H60" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="L60" s="117" t="s">
-        <v>486</v>
+        <v>493</v>
+      </c>
+      <c r="L60" s="114" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="E61" s="112" t="s">
-        <v>488</v>
-      </c>
-      <c r="F61" s="116" t="s">
-        <v>489</v>
-      </c>
-      <c r="G61" s="120" t="s">
-        <v>490</v>
-      </c>
-      <c r="H61" s="114" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E61" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="F61" s="113" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61" s="132" t="s">
+        <v>499</v>
+      </c>
+      <c r="H61" s="111" t="s">
+        <v>500</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="L61" s="117" t="s">
-        <v>495</v>
+        <v>503</v>
+      </c>
+      <c r="L61" s="114" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="10" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="E62" s="112" t="s">
-        <v>498</v>
-      </c>
-      <c r="F62" s="116" t="s">
-        <v>499</v>
-      </c>
-      <c r="G62" s="120" t="s">
-        <v>500</v>
-      </c>
-      <c r="H62" s="114" t="s">
-        <v>501</v>
+        <v>505</v>
+      </c>
+      <c r="D62" s="110" t="s">
+        <v>506</v>
+      </c>
+      <c r="E62" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" s="132" t="s">
+        <v>507</v>
+      </c>
+      <c r="H62" s="111" t="s">
+        <v>508</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="L62" s="117" t="s">
-        <v>505</v>
+        <v>509</v>
+      </c>
+      <c r="L62" s="114" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="10" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D63" s="113" t="s">
-        <v>507</v>
-      </c>
-      <c r="E63" s="110" t="s">
-        <v>413</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="G63" s="120" t="s">
-        <v>508</v>
-      </c>
-      <c r="H63" s="114" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="D63" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="E63" s="107" t="s">
+        <v>428</v>
+      </c>
+      <c r="F63" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" s="132" t="s">
+        <v>514</v>
+      </c>
+      <c r="H63" s="111" t="s">
+        <v>515</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>155</v>
+        <v>516</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="L63" s="117" t="s">
-        <v>511</v>
+        <v>517</v>
+      </c>
+      <c r="L63" s="114" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="D64" s="113" t="s">
-        <v>513</v>
-      </c>
-      <c r="E64" s="110" t="s">
-        <v>428</v>
-      </c>
-      <c r="F64" s="116" t="s">
-        <v>514</v>
-      </c>
-      <c r="G64" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="H64" s="114" t="s">
-        <v>516</v>
+        <v>96</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E64" s="109" t="s">
+        <v>520</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="G64" s="110" t="s">
+        <v>522</v>
+      </c>
+      <c r="H64" s="111" t="s">
+        <v>523</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="L64" s="117" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>520</v>
+        <v>102</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>526</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="E65" s="112" t="s">
-        <v>521</v>
+        <v>106</v>
+      </c>
+      <c r="E65" s="109" t="s">
+        <v>527</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="G65" s="113" t="s">
-        <v>523</v>
-      </c>
-      <c r="H65" s="114" t="s">
-        <v>524</v>
+        <v>496</v>
+      </c>
+      <c r="G65" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="H65" s="111" t="s">
+        <v>529</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>526</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="119" t="s">
-        <v>527</v>
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>541</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>106</v>
+        <v>542</v>
       </c>
       <c r="E66" s="112" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G66" s="113" t="s">
-        <v>529</v>
-      </c>
-      <c r="H66" s="114" t="s">
-        <v>530</v>
+        <v>544</v>
+      </c>
+      <c r="G66" s="132" t="s">
+        <v>545</v>
+      </c>
+      <c r="H66" s="111" t="s">
+        <v>546</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>332</v>
+        <v>548</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="L66" s="114" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="10" t="s">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="E67" s="115" t="s">
-        <v>544</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>546</v>
-      </c>
-      <c r="H67" s="114" t="s">
-        <v>547</v>
+        <v>11</v>
+      </c>
+      <c r="C67" s="131" t="s">
+        <v>587</v>
+      </c>
+      <c r="D67" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F67" s="113" t="s">
+        <v>590</v>
+      </c>
+      <c r="G67" s="114" t="s">
+        <v>591</v>
+      </c>
+      <c r="H67" s="111" t="s">
+        <v>592</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="L67" s="117" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="10" t="s">
-        <v>587</v>
+      <c r="A68" s="127" t="s">
+        <v>602</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="D68" s="111" t="s">
-        <v>589</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F68" s="116" t="s">
-        <v>591</v>
-      </c>
-      <c r="G68" s="117" t="s">
-        <v>592</v>
-      </c>
-      <c r="H68" s="114" t="s">
-        <v>593</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>594</v>
+        <v>603</v>
+      </c>
+      <c r="C68" s="115" t="s">
+        <v>604</v>
+      </c>
+      <c r="D68" s="110" t="s">
+        <v>605</v>
+      </c>
+      <c r="E68" s="109" t="s">
+        <v>606</v>
+      </c>
+      <c r="F68" s="108" t="s">
+        <v>353</v>
+      </c>
+      <c r="G68" s="112" t="s">
+        <v>607</v>
+      </c>
+      <c r="H68" s="111" t="s">
+        <v>608</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>595</v>
+        <v>384</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="132" t="s">
-        <v>603</v>
+      <c r="A69" s="127" t="s">
+        <v>610</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C69" s="118" t="s">
-        <v>605</v>
-      </c>
-      <c r="D69" s="113" t="s">
-        <v>606</v>
-      </c>
-      <c r="E69" s="112" t="s">
-        <v>607</v>
-      </c>
-      <c r="F69" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="G69" s="115" t="s">
-        <v>608</v>
-      </c>
-      <c r="H69" s="114" t="s">
-        <v>609</v>
+        <v>611</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>612</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>613</v>
+      </c>
+      <c r="E69" s="109" t="s">
+        <v>614</v>
+      </c>
+      <c r="F69" s="108" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="112" t="s">
+        <v>615</v>
+      </c>
+      <c r="H69" s="111" t="s">
+        <v>616</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="132" t="s">
-        <v>611</v>
+      <c r="A70" s="127" t="s">
+        <v>618</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="C70" s="118" t="s">
-        <v>613</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>614</v>
-      </c>
-      <c r="E70" s="112" t="s">
-        <v>615</v>
-      </c>
-      <c r="F70" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="G70" s="115" t="s">
-        <v>616</v>
-      </c>
-      <c r="H70" s="114" t="s">
-        <v>617</v>
+        <v>619</v>
+      </c>
+      <c r="C70" s="115" t="s">
+        <v>620</v>
+      </c>
+      <c r="D70" s="110" t="s">
+        <v>621</v>
+      </c>
+      <c r="E70" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="F70" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="G70" s="112" t="s">
+        <v>623</v>
+      </c>
+      <c r="H70" s="111" t="s">
+        <v>624</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>393</v>
+        <v>626</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="132" t="s">
-        <v>619</v>
+      <c r="A71" s="127" t="s">
+        <v>628</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C71" s="118" t="s">
-        <v>621</v>
-      </c>
-      <c r="D71" s="113" t="s">
-        <v>622</v>
-      </c>
-      <c r="E71" s="119" t="s">
-        <v>463</v>
-      </c>
-      <c r="F71" s="111" t="s">
-        <v>623</v>
-      </c>
-      <c r="G71" s="115" t="s">
-        <v>624</v>
-      </c>
-      <c r="H71" s="114" t="s">
-        <v>625</v>
+        <v>629</v>
+      </c>
+      <c r="C71" s="115" t="s">
+        <v>630</v>
+      </c>
+      <c r="D71" s="110" t="s">
+        <v>631</v>
+      </c>
+      <c r="E71" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="F71" s="108" t="s">
+        <v>632</v>
+      </c>
+      <c r="G71" s="112" t="s">
+        <v>633</v>
+      </c>
+      <c r="H71" s="111" t="s">
+        <v>634</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>626</v>
+        <v>505</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>627</v>
+        <v>558</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="132" t="s">
-        <v>629</v>
+      <c r="A72" s="127" t="s">
+        <v>636</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="C72" s="118" t="s">
-        <v>631</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>632</v>
-      </c>
-      <c r="E72" s="119" t="s">
-        <v>455</v>
-      </c>
-      <c r="F72" s="111" t="s">
-        <v>633</v>
-      </c>
-      <c r="G72" s="115" t="s">
-        <v>634</v>
-      </c>
-      <c r="H72" s="114" t="s">
-        <v>635</v>
+        <v>637</v>
+      </c>
+      <c r="C72" s="115" t="s">
+        <v>638</v>
+      </c>
+      <c r="D72" s="110" t="s">
+        <v>639</v>
+      </c>
+      <c r="E72" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="F72" s="108" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="H72" s="111" t="s">
+        <v>641</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>506</v>
+        <v>642</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="132" t="s">
-        <v>637</v>
+      <c r="A73" s="127" t="s">
+        <v>643</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C73" s="118" t="s">
-        <v>639</v>
-      </c>
-      <c r="D73" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E73" s="112" t="s">
-        <v>488</v>
-      </c>
-      <c r="F73" s="111" t="s">
-        <v>360</v>
+        <v>644</v>
+      </c>
+      <c r="C73" s="115" t="s">
+        <v>645</v>
+      </c>
+      <c r="D73" s="110" t="s">
+        <v>646</v>
+      </c>
+      <c r="E73" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="F73" s="108" t="s">
+        <v>599</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="H73" s="114" t="s">
-        <v>642</v>
+        <v>647</v>
+      </c>
+      <c r="H73" s="111" t="s">
+        <v>648</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="132" t="s">
-        <v>644</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C74" s="118" t="s">
-        <v>646</v>
-      </c>
-      <c r="D74" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="E74" s="112" t="s">
-        <v>498</v>
-      </c>
-      <c r="F74" s="111" t="s">
-        <v>600</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="H74" s="114" t="s">
-        <v>649</v>
+      <c r="A74" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="131" t="s">
+        <v>651</v>
+      </c>
+      <c r="D74" s="110" t="s">
+        <v>652</v>
+      </c>
+      <c r="E74" s="116" t="s">
+        <v>653</v>
+      </c>
+      <c r="F74" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="G74" s="114" t="s">
+        <v>655</v>
+      </c>
+      <c r="H74" s="111" t="s">
+        <v>656</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="D75" s="113" t="s">
-        <v>653</v>
-      </c>
-      <c r="E75" s="119" t="s">
-        <v>654</v>
-      </c>
-      <c r="F75" s="111" t="s">
-        <v>655</v>
-      </c>
-      <c r="G75" s="117" t="s">
-        <v>656</v>
-      </c>
-      <c r="H75" s="114" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="131" t="s">
+        <v>660</v>
+      </c>
+      <c r="D75" s="110" t="s">
+        <v>661</v>
+      </c>
+      <c r="E75" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="F75" s="108" t="s">
+        <v>663</v>
+      </c>
+      <c r="G75" s="114" t="s">
+        <v>664</v>
+      </c>
+      <c r="H75" s="111" t="s">
+        <v>665</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="10" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="D76" s="113" t="s">
-        <v>662</v>
-      </c>
-      <c r="E76" s="119" t="s">
-        <v>663</v>
-      </c>
-      <c r="F76" s="111" t="s">
-        <v>664</v>
-      </c>
-      <c r="G76" s="117" t="s">
-        <v>665</v>
-      </c>
-      <c r="H76" s="114" t="s">
-        <v>666</v>
+        <v>5</v>
+      </c>
+      <c r="C76" s="131" t="s">
+        <v>669</v>
+      </c>
+      <c r="D76" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="E76" s="110" t="s">
+        <v>358</v>
+      </c>
+      <c r="F76" s="108" t="s">
+        <v>670</v>
+      </c>
+      <c r="G76" s="114" t="s">
+        <v>671</v>
+      </c>
+      <c r="H76" s="111" t="s">
+        <v>672</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="10" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D77" s="113" t="s">
-        <v>479</v>
-      </c>
-      <c r="E77" s="113" t="s">
-        <v>358</v>
-      </c>
-      <c r="F77" s="111" t="s">
-        <v>671</v>
-      </c>
-      <c r="G77" s="117" t="s">
-        <v>672</v>
-      </c>
-      <c r="H77" s="114" t="s">
-        <v>673</v>
+        <v>6</v>
+      </c>
+      <c r="C77" s="131" t="s">
+        <v>676</v>
+      </c>
+      <c r="D77" s="110" t="s">
+        <v>469</v>
+      </c>
+      <c r="E77" s="110" t="s">
+        <v>677</v>
+      </c>
+      <c r="F77" s="108" t="s">
+        <v>678</v>
+      </c>
+      <c r="G77" s="114" t="s">
+        <v>679</v>
+      </c>
+      <c r="H77" s="111" t="s">
+        <v>680</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="10" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="D78" s="113" t="s">
-        <v>470</v>
-      </c>
-      <c r="E78" s="113" t="s">
-        <v>678</v>
-      </c>
-      <c r="F78" s="111" t="s">
-        <v>679</v>
-      </c>
-      <c r="G78" s="117" t="s">
-        <v>680</v>
-      </c>
-      <c r="H78" s="114" t="s">
-        <v>681</v>
+        <v>7</v>
+      </c>
+      <c r="C78" s="131" t="s">
+        <v>684</v>
+      </c>
+      <c r="D78" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="E78" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="F78" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="G78" s="114" t="s">
+        <v>685</v>
+      </c>
+      <c r="H78" s="111" t="s">
+        <v>686</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="D79" s="113" t="s">
-        <v>435</v>
-      </c>
-      <c r="E79" s="113" t="s">
-        <v>365</v>
-      </c>
-      <c r="F79" s="112" t="s">
-        <v>464</v>
-      </c>
-      <c r="G79" s="117" t="s">
-        <v>686</v>
-      </c>
-      <c r="H79" s="114" t="s">
-        <v>687</v>
+        <v>8</v>
+      </c>
+      <c r="C79" s="131" t="s">
+        <v>690</v>
+      </c>
+      <c r="D79" s="110" t="s">
+        <v>691</v>
+      </c>
+      <c r="E79" s="110" t="s">
+        <v>692</v>
+      </c>
+      <c r="F79" s="109" t="s">
+        <v>455</v>
+      </c>
+      <c r="G79" s="114" t="s">
+        <v>693</v>
+      </c>
+      <c r="H79" s="111" t="s">
+        <v>694</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="10" t="s">
-        <v>690</v>
+      <c r="A80" s="126" t="s">
+        <v>913</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="D80" s="113" t="s">
-        <v>692</v>
-      </c>
-      <c r="E80" s="113" t="s">
-        <v>693</v>
-      </c>
-      <c r="F80" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="G80" s="117" t="s">
-        <v>694</v>
-      </c>
-      <c r="H80" s="114" t="s">
-        <v>695</v>
+        <v>13</v>
+      </c>
+      <c r="C80" s="131" t="s">
+        <v>910</v>
+      </c>
+      <c r="D80" s="108" t="s">
+        <v>924</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="F80" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="G80" s="114" t="s">
+        <v>917</v>
+      </c>
+      <c r="H80" s="111" t="s">
+        <v>920</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>696</v>
+        <v>927</v>
       </c>
       <c r="K80" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="126" t="s">
+        <v>705</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="131" t="s">
+        <v>911</v>
+      </c>
+      <c r="D81" s="108" t="s">
+        <v>925</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="F81" s="113" t="s">
+        <v>929</v>
+      </c>
+      <c r="G81" s="114" t="s">
+        <v>918</v>
+      </c>
+      <c r="H81" s="111" t="s">
+        <v>921</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="126" t="s">
+        <v>727</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="131" t="s">
+        <v>939</v>
+      </c>
+      <c r="D82" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="E82" s="116" t="s">
+        <v>949</v>
+      </c>
+      <c r="F82" s="113" t="s">
+        <v>534</v>
+      </c>
+      <c r="G82" s="114" t="s">
+        <v>950</v>
+      </c>
+      <c r="H82" s="111" t="s">
+        <v>964</v>
+      </c>
+      <c r="I82" s="110" t="s">
+        <v>838</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="L82" s="114" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="126" t="s">
+        <v>734</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="131" t="s">
+        <v>940</v>
+      </c>
+      <c r="D83" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="116" t="s">
+        <v>978</v>
+      </c>
+      <c r="F83" s="113" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" s="114" t="s">
+        <v>951</v>
+      </c>
+      <c r="H83" s="111" t="s">
+        <v>965</v>
+      </c>
+      <c r="I83" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="L83" s="114" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="126" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="131" t="s">
+      <c r="B84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="131" t="s">
+        <v>941</v>
+      </c>
+      <c r="D84" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" s="132" t="s">
+        <v>982</v>
+      </c>
+      <c r="F84" s="113" t="s">
+        <v>983</v>
+      </c>
+      <c r="G84" s="114" t="s">
+        <v>952</v>
+      </c>
+      <c r="H84" s="111" t="s">
+        <v>966</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="L84" s="114" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="126" t="s">
+        <v>720</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="131" t="s">
+        <v>942</v>
+      </c>
+      <c r="D85" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" s="132" t="s">
+        <v>986</v>
+      </c>
+      <c r="F85" s="113" t="s">
+        <v>987</v>
+      </c>
+      <c r="G85" s="114" t="s">
+        <v>953</v>
+      </c>
+      <c r="H85" s="111" t="s">
+        <v>967</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="L85" s="114" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="126" t="s">
+        <v>713</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="131" t="s">
+        <v>943</v>
+      </c>
+      <c r="D86" s="108" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="132" t="s">
+        <v>990</v>
+      </c>
+      <c r="F86" s="113" t="s">
+        <v>849</v>
+      </c>
+      <c r="G86" s="114" t="s">
+        <v>954</v>
+      </c>
+      <c r="H86" s="111" t="s">
+        <v>968</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="L86" s="114" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="126" t="s">
+        <v>741</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="131" t="s">
+        <v>944</v>
+      </c>
+      <c r="D87" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" s="132" t="s">
+        <v>995</v>
+      </c>
+      <c r="F87" s="113" t="s">
+        <v>992</v>
+      </c>
+      <c r="G87" s="114" t="s">
+        <v>955</v>
+      </c>
+      <c r="H87" s="111" t="s">
+        <v>969</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="L87" s="114" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="126" t="s">
+        <v>931</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="131" t="s">
+        <v>945</v>
+      </c>
+      <c r="D88" s="108" t="s">
+        <v>994</v>
+      </c>
+      <c r="E88" s="132" t="s">
+        <v>996</v>
+      </c>
+      <c r="F88" s="113" t="s">
+        <v>997</v>
+      </c>
+      <c r="G88" s="114" t="s">
+        <v>956</v>
+      </c>
+      <c r="H88" s="111" t="s">
+        <v>970</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="L88" s="114" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="126" t="s">
+        <v>932</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="131" t="s">
+        <v>946</v>
+      </c>
+      <c r="D89" s="108" t="s">
+        <v>702</v>
+      </c>
+      <c r="E89" s="132" t="s">
+        <v>999</v>
+      </c>
+      <c r="F89" s="113" t="s">
+        <v>709</v>
+      </c>
+      <c r="G89" s="114" t="s">
+        <v>957</v>
+      </c>
+      <c r="H89" s="111" t="s">
+        <v>971</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="L89" s="114" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="126" t="s">
+        <v>933</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="131" t="s">
+        <v>947</v>
+      </c>
+      <c r="D90" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90" s="132" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F90" s="113" t="s">
+        <v>716</v>
+      </c>
+      <c r="G90" s="114" t="s">
+        <v>958</v>
+      </c>
+      <c r="H90" s="111" t="s">
+        <v>972</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L90" s="114" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="126" t="s">
+        <v>934</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="131" t="s">
+        <v>948</v>
+      </c>
+      <c r="D91" s="108" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E91" s="132" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F91" s="113" t="s">
+        <v>723</v>
+      </c>
+      <c r="G91" s="114" t="s">
+        <v>959</v>
+      </c>
+      <c r="H91" s="111" t="s">
+        <v>973</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L91" s="114" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="126" t="s">
+        <v>935</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E92" s="132" t="s">
+        <v>255</v>
+      </c>
+      <c r="F92" s="113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G92" s="114" t="s">
+        <v>960</v>
+      </c>
+      <c r="H92" s="111" t="s">
+        <v>974</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="L92" s="114" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="126" t="s">
+        <v>936</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D93" s="108" t="s">
+        <v>708</v>
+      </c>
+      <c r="E93" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="F93" s="113" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G93" s="114" t="s">
+        <v>961</v>
+      </c>
+      <c r="H93" s="111" t="s">
+        <v>975</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="L93" s="114" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="126" t="s">
+        <v>937</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="D94" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="E94" s="132" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" s="113" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G94" s="114" t="s">
+        <v>962</v>
+      </c>
+      <c r="H94" s="111" t="s">
+        <v>976</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="L94" s="114" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="126" t="s">
+        <v>938</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="D95" s="108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E95" s="132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F95" s="113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G95" s="114" t="s">
+        <v>963</v>
+      </c>
+      <c r="H95" s="111" t="s">
+        <v>977</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="L95" s="114" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="126" t="s">
+        <v>912</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="131" t="s">
+        <v>909</v>
+      </c>
+      <c r="D96" s="108" t="s">
         <v>914</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="D81" s="111" t="s">
-        <v>925</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="F81" s="116" t="s">
-        <v>489</v>
-      </c>
-      <c r="G81" s="117" t="s">
-        <v>918</v>
-      </c>
-      <c r="H81" s="114" t="s">
-        <v>921</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>926</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>929</v>
-      </c>
-      <c r="F82" s="116" t="s">
-        <v>930</v>
-      </c>
-      <c r="G82" s="117" t="s">
+      <c r="E96" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="F96" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="G96" s="114" t="s">
+        <v>916</v>
+      </c>
+      <c r="H96" s="111" t="s">
         <v>919</v>
       </c>
-      <c r="H82" s="114" t="s">
+      <c r="I96" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="I82" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="131" t="s">
-        <v>728</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>940</v>
-      </c>
-      <c r="D83" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="E83" s="112" t="s">
-        <v>950</v>
-      </c>
-      <c r="F83" s="116" t="s">
-        <v>535</v>
-      </c>
-      <c r="G83" s="117" t="s">
-        <v>951</v>
-      </c>
-      <c r="H83" s="114" t="s">
-        <v>965</v>
-      </c>
-      <c r="I83" s="113" t="s">
-        <v>839</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="L83" s="117" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="131" t="s">
-        <v>735</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="D84" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="E84" s="112" t="s">
-        <v>979</v>
-      </c>
-      <c r="F84" s="116" t="s">
-        <v>545</v>
-      </c>
-      <c r="G84" s="117" t="s">
-        <v>952</v>
-      </c>
-      <c r="H84" s="114" t="s">
-        <v>966</v>
-      </c>
-      <c r="I84" s="113" t="s">
-        <v>980</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="L84" s="117" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="131" t="s">
-        <v>698</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>406</v>
-      </c>
-      <c r="E85" s="112" t="s">
-        <v>983</v>
-      </c>
-      <c r="F85" s="116" t="s">
-        <v>984</v>
-      </c>
-      <c r="G85" s="117" t="s">
-        <v>953</v>
-      </c>
-      <c r="H85" s="114" t="s">
-        <v>967</v>
-      </c>
-      <c r="I85" s="130"/>
-      <c r="K85" s="10" t="s">
-        <v>985</v>
-      </c>
-      <c r="L85" s="117" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="131" t="s">
-        <v>721</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="D86" s="111" t="s">
-        <v>421</v>
-      </c>
-      <c r="E86" s="112" t="s">
-        <v>987</v>
-      </c>
-      <c r="F86" s="116" t="s">
-        <v>988</v>
-      </c>
-      <c r="G86" s="117" t="s">
-        <v>954</v>
-      </c>
-      <c r="H86" s="114" t="s">
-        <v>968</v>
-      </c>
-      <c r="I86" s="130"/>
-      <c r="K86" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="L86" s="117" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="131" t="s">
-        <v>714</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>944</v>
-      </c>
-      <c r="D87" s="111" t="s">
-        <v>414</v>
-      </c>
-      <c r="E87" s="112" t="s">
-        <v>991</v>
-      </c>
-      <c r="F87" s="116" t="s">
-        <v>850</v>
-      </c>
-      <c r="G87" s="117" t="s">
-        <v>955</v>
-      </c>
-      <c r="H87" s="114" t="s">
-        <v>969</v>
-      </c>
-      <c r="I87" s="130"/>
-      <c r="K87" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="L87" s="117" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="131" t="s">
-        <v>742</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>945</v>
-      </c>
-      <c r="D88" s="111" t="s">
-        <v>429</v>
-      </c>
-      <c r="E88" s="112" t="s">
-        <v>996</v>
-      </c>
-      <c r="F88" s="116" t="s">
-        <v>993</v>
-      </c>
-      <c r="G88" s="117" t="s">
-        <v>956</v>
-      </c>
-      <c r="H88" s="114" t="s">
-        <v>970</v>
-      </c>
-      <c r="I88" s="130"/>
-      <c r="K88" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="L88" s="117" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="131" t="s">
-        <v>932</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>995</v>
-      </c>
-      <c r="E89" s="112" t="s">
-        <v>997</v>
-      </c>
-      <c r="F89" s="116" t="s">
-        <v>998</v>
-      </c>
-      <c r="G89" s="117" t="s">
-        <v>957</v>
-      </c>
-      <c r="H89" s="114" t="s">
-        <v>971</v>
-      </c>
-      <c r="I89" s="130"/>
-      <c r="K89" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="L89" s="117" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="131" t="s">
-        <v>933</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>947</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>703</v>
-      </c>
-      <c r="E90" s="112" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F90" s="116" t="s">
-        <v>710</v>
-      </c>
-      <c r="G90" s="117" t="s">
-        <v>958</v>
-      </c>
-      <c r="H90" s="114" t="s">
-        <v>972</v>
-      </c>
-      <c r="I90" s="130"/>
-      <c r="K90" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="L90" s="117" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="131" t="s">
-        <v>934</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>948</v>
-      </c>
-      <c r="D91" s="111" t="s">
+      <c r="K96" s="10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="126" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" s="110" t="s">
+        <v>444</v>
+      </c>
+      <c r="E97" s="109" t="s">
         <v>445</v>
       </c>
-      <c r="E91" s="112" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F91" s="116" t="s">
-        <v>717</v>
-      </c>
-      <c r="G91" s="117" t="s">
-        <v>959</v>
-      </c>
-      <c r="H91" s="114" t="s">
-        <v>973</v>
-      </c>
-      <c r="I91" s="130" t="s">
-        <v>718</v>
-      </c>
-      <c r="L91" s="117" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="131" t="s">
-        <v>935</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D92" s="111" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E92" s="112" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F92" s="116" t="s">
-        <v>724</v>
-      </c>
-      <c r="G92" s="117" t="s">
-        <v>960</v>
-      </c>
-      <c r="H92" s="114" t="s">
-        <v>974</v>
-      </c>
-      <c r="I92" s="130" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L92" s="117" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="131" t="s">
-        <v>936</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="E93" s="112" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="116" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G93" s="117" t="s">
-        <v>961</v>
-      </c>
-      <c r="H93" s="114" t="s">
-        <v>975</v>
-      </c>
-      <c r="I93" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="L93" s="117" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="131" t="s">
-        <v>937</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D94" s="111" t="s">
-        <v>709</v>
-      </c>
-      <c r="E94" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="116" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G94" s="117" t="s">
-        <v>962</v>
-      </c>
-      <c r="H94" s="114" t="s">
-        <v>976</v>
-      </c>
-      <c r="I94" s="130" t="s">
-        <v>584</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="L94" s="117" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="131" t="s">
-        <v>938</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D95" s="111" t="s">
-        <v>344</v>
-      </c>
-      <c r="E95" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" s="116" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G95" s="117" t="s">
-        <v>963</v>
-      </c>
-      <c r="H95" s="114" t="s">
-        <v>977</v>
-      </c>
-      <c r="I95" s="130" t="s">
-        <v>475</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="L95" s="117" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="131" t="s">
-        <v>939</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>903</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E96" s="112" t="s">
-        <v>261</v>
-      </c>
-      <c r="F96" s="116" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G96" s="117" t="s">
-        <v>964</v>
-      </c>
-      <c r="H96" s="114" t="s">
-        <v>978</v>
-      </c>
-      <c r="I96" s="130" t="s">
-        <v>870</v>
-      </c>
-      <c r="L96" s="117" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="131" t="s">
-        <v>913</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>915</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="F97" s="116" t="s">
-        <v>514</v>
-      </c>
-      <c r="G97" s="117" t="s">
-        <v>917</v>
-      </c>
-      <c r="H97" s="114" t="s">
-        <v>920</v>
+      <c r="F97" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H97" s="111" t="s">
+        <v>448</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>923</v>
+        <v>449</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>924</v>
+        <v>451</v>
+      </c>
+      <c r="L97" s="114" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="132" t="s">
-        <v>1045</v>
+      <c r="A98" s="127" t="s">
+        <v>1044</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C98" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E98" s="109" t="s">
+        <v>826</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="E98" s="112" t="s">
-        <v>827</v>
-      </c>
-      <c r="F98" s="10" t="s">
+      <c r="G98" s="132" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98" s="111" t="s">
         <v>1018</v>
       </c>
-      <c r="G98" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="H98" s="114" t="s">
+      <c r="I98" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="J98" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="K98" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="L98" s="114" t="s">
         <v>1021</v>
       </c>
-      <c r="K98" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="L98" s="117" t="s">
-        <v>1022</v>
-      </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="132" t="s">
-        <v>1045</v>
+      <c r="A99" s="127" t="s">
+        <v>1044</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>903</v>
-      </c>
-      <c r="E99" s="112" t="s">
-        <v>830</v>
+        <v>902</v>
+      </c>
+      <c r="E99" s="109" t="s">
+        <v>829</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="120" t="s">
+      <c r="G99" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="H99" s="114" t="s">
+      <c r="H99" s="111" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="K99" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="L99" s="114" t="s">
         <v>1027</v>
       </c>
-      <c r="L99" s="117" t="s">
-        <v>1028</v>
-      </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="132" t="s">
-        <v>1045</v>
+      <c r="A100" s="127" t="s">
+        <v>1044</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>240</v>
       </c>
       <c r="C100" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="E100" s="112" t="s">
+        <v>333</v>
+      </c>
+      <c r="F100" s="113" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" s="132" t="s">
         <v>1038</v>
       </c>
-      <c r="E100" s="115" t="s">
-        <v>333</v>
-      </c>
-      <c r="F100" s="116" t="s">
-        <v>389</v>
-      </c>
-      <c r="G100" s="120" t="s">
+      <c r="H100" s="111" t="s">
         <v>1039</v>
       </c>
-      <c r="H100" s="114" t="s">
+      <c r="I100" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="J100" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="K100" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="L100" s="114" t="s">
         <v>1043</v>
       </c>
-      <c r="L100" s="117" t="s">
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="127" t="s">
         <v>1044</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="132" t="s">
-        <v>1045</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C101" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="E101" s="112" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="132" t="s">
         <v>1030</v>
       </c>
-      <c r="E101" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="F101" s="116" t="s">
-        <v>380</v>
-      </c>
-      <c r="G101" s="120" t="s">
+      <c r="H101" s="111" t="s">
         <v>1031</v>
       </c>
-      <c r="H101" s="114" t="s">
+      <c r="I101" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="J101" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="K101" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="L101" s="114" t="s">
         <v>1035</v>
       </c>
-      <c r="L101" s="117" t="s">
-        <v>1036</v>
-      </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="132" t="s">
-        <v>1045</v>
+      <c r="A102" s="127" t="s">
+        <v>1044</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C102" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="E102" s="112" t="s">
         <v>533</v>
       </c>
-      <c r="E102" s="115" t="s">
+      <c r="F102" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="G102" s="132" t="s">
         <v>535</v>
       </c>
-      <c r="G102" s="120" t="s">
+      <c r="H102" s="111" t="s">
         <v>536</v>
       </c>
-      <c r="H102" s="114" t="s">
+      <c r="I102" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="J102" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="K102" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="L102" s="114" t="s">
         <v>540</v>
-      </c>
-      <c r="L102" s="117" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="10" customFormat="1"/>

--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EVKB_1060\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50528214-1300-4CD8-B4CA-46641D7B50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C05FE3-A1A7-4A62-8D80-956C411AF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="540" windowWidth="29535" windowHeight="18630" tabRatio="400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2400" windowWidth="33465" windowHeight="14415" tabRatio="400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Mux" sheetId="4" r:id="rId4"/>
+    <sheet name="DB5 Card like" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1064">
   <si>
     <t>B0_01</t>
   </si>
@@ -3301,6 +3315,133 @@
   </si>
   <si>
     <t>New T5 15/A1</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 37 on t41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36 on t41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 35 on t41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 34 ont41</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_B1_04</t>
+  </si>
+  <si>
+    <t>AD_B1_05</t>
+  </si>
+  <si>
+    <t>AD_B1_12</t>
+  </si>
+  <si>
+    <t>AD_B1_13</t>
+  </si>
+  <si>
+    <t>Serial3(2) RX</t>
+  </si>
+  <si>
+    <t>15/A1</t>
+  </si>
+  <si>
+    <t>A1:8, A2:8</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>A1:9</t>
+  </si>
+  <si>
+    <t>A1:10</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3536,12 +3677,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3559,7 +3694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3834,13 +3969,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4088,9 +4234,10 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4100,8 +4247,27 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4549,6 +4715,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>634234</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D640AD66-4DED-F7F8-1DDA-22EBF67E00B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9749118" y="123266"/>
+          <a:ext cx="4892469" cy="8516470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:O45" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:O45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
@@ -6528,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
@@ -9111,21 +9343,21 @@
       <c r="M10" s="96"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="131"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="86" t="s">
@@ -9261,8 +9493,8 @@
   </sheetPr>
   <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9670,7 +9902,7 @@
       <c r="F15" s="108" t="s">
         <v>583</v>
       </c>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="124" t="s">
         <v>392</v>
       </c>
       <c r="H15" s="111" t="s">
@@ -9693,13 +9925,13 @@
       <c r="D16" s="108" t="s">
         <v>818</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="109" t="s">
         <v>463</v>
       </c>
       <c r="F16" s="108" t="s">
         <v>405</v>
       </c>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="124" t="s">
         <v>383</v>
       </c>
       <c r="H16" s="111" t="s">
@@ -9722,7 +9954,7 @@
       <c r="D17" s="108" t="s">
         <v>821</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="109" t="s">
         <v>455</v>
       </c>
       <c r="F17" s="108" t="s">
@@ -9751,7 +9983,7 @@
       <c r="D18" s="108" t="s">
         <v>824</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="109" t="s">
         <v>826</v>
       </c>
       <c r="F18" s="108" t="s">
@@ -9780,7 +10012,7 @@
       <c r="D19" s="108" t="s">
         <v>825</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="109" t="s">
         <v>829</v>
       </c>
       <c r="F19" s="108" t="s">
@@ -9809,7 +10041,7 @@
       <c r="D20" s="110" t="s">
         <v>831</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="109" t="s">
         <v>832</v>
       </c>
       <c r="F20" s="108" t="s">
@@ -9835,7 +10067,7 @@
       <c r="D21" s="110" t="s">
         <v>833</v>
       </c>
-      <c r="E21" s="124" t="s">
+      <c r="E21" s="109" t="s">
         <v>834</v>
       </c>
       <c r="F21" s="108" t="s">
@@ -9864,7 +10096,7 @@
       <c r="D22" s="110" t="s">
         <v>838</v>
       </c>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="109" t="s">
         <v>388</v>
       </c>
       <c r="F22" s="108" t="s">
@@ -9893,7 +10125,7 @@
       <c r="D23" s="110" t="s">
         <v>842</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="109" t="s">
         <v>379</v>
       </c>
       <c r="F23" s="108" t="s">
@@ -10183,7 +10415,7 @@
       <c r="F33" s="112" t="s">
         <v>623</v>
       </c>
-      <c r="G33" s="132" t="s">
+      <c r="G33" s="128" t="s">
         <v>857</v>
       </c>
       <c r="H33" s="111" t="s">
@@ -10212,7 +10444,7 @@
       <c r="F34" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G34" s="132" t="s">
+      <c r="G34" s="128" t="s">
         <v>564</v>
       </c>
       <c r="H34" s="111" t="s">
@@ -10241,7 +10473,7 @@
       <c r="F35" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="G35" s="132" t="s">
+      <c r="G35" s="128" t="s">
         <v>556</v>
       </c>
       <c r="H35" s="111" t="s">
@@ -10270,7 +10502,7 @@
       <c r="F36" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="G36" s="132" t="s">
+      <c r="G36" s="128" t="s">
         <v>871</v>
       </c>
       <c r="H36" s="111" t="s">
@@ -10302,7 +10534,7 @@
       <c r="F37" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="G37" s="132" t="s">
+      <c r="G37" s="128" t="s">
         <v>872</v>
       </c>
       <c r="H37" s="111" t="s">
@@ -10331,7 +10563,7 @@
       <c r="F38" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="G38" s="132" t="s">
+      <c r="G38" s="128" t="s">
         <v>873</v>
       </c>
       <c r="H38" s="111" t="s">
@@ -10363,7 +10595,7 @@
       <c r="F39" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="G39" s="132" t="s">
+      <c r="G39" s="128" t="s">
         <v>581</v>
       </c>
       <c r="H39" s="111" t="s">
@@ -10398,7 +10630,7 @@
       <c r="F40" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="G40" s="132" t="s">
+      <c r="G40" s="128" t="s">
         <v>572</v>
       </c>
       <c r="H40" s="111" t="s">
@@ -10433,7 +10665,7 @@
       <c r="F41" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="G41" s="132" t="s">
+      <c r="G41" s="128" t="s">
         <v>885</v>
       </c>
       <c r="H41" s="111" t="s">
@@ -10613,7 +10845,7 @@
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="127" t="s">
         <v>369</v>
       </c>
       <c r="D47" s="110" t="s">
@@ -10645,7 +10877,7 @@
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="127" t="s">
         <v>377</v>
       </c>
       <c r="D48" s="108" t="s">
@@ -10680,7 +10912,7 @@
       <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="127" t="s">
         <v>386</v>
       </c>
       <c r="D49" s="108" t="s">
@@ -10715,7 +10947,7 @@
       <c r="B50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="127" t="s">
         <v>395</v>
       </c>
       <c r="D50" s="110" t="s">
@@ -10747,7 +10979,7 @@
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="127" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="110" t="s">
@@ -10779,7 +11011,7 @@
       <c r="B52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="127" t="s">
         <v>315</v>
       </c>
       <c r="D52" s="110" t="s">
@@ -10811,7 +11043,7 @@
       <c r="B53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="127" t="s">
         <v>212</v>
       </c>
       <c r="D53" s="110" t="s">
@@ -10843,7 +11075,7 @@
       <c r="B54" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="127" t="s">
         <v>306</v>
       </c>
       <c r="D54" s="110" t="s">
@@ -10925,7 +11157,7 @@
       <c r="F56" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="G56" s="132" t="s">
+      <c r="G56" s="128" t="s">
         <v>223</v>
       </c>
       <c r="H56" s="111" t="s">
@@ -10963,7 +11195,7 @@
       <c r="F57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="132" t="s">
+      <c r="G57" s="128" t="s">
         <v>76</v>
       </c>
       <c r="H57" s="111" t="s">
@@ -11077,7 +11309,7 @@
       <c r="F60" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="G60" s="132" t="s">
+      <c r="G60" s="128" t="s">
         <v>489</v>
       </c>
       <c r="H60" s="111" t="s">
@@ -11115,7 +11347,7 @@
       <c r="F61" s="113" t="s">
         <v>498</v>
       </c>
-      <c r="G61" s="132" t="s">
+      <c r="G61" s="128" t="s">
         <v>499</v>
       </c>
       <c r="H61" s="111" t="s">
@@ -11153,7 +11385,7 @@
       <c r="F62" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="G62" s="132" t="s">
+      <c r="G62" s="128" t="s">
         <v>507</v>
       </c>
       <c r="H62" s="111" t="s">
@@ -11188,7 +11420,7 @@
       <c r="F63" s="113" t="s">
         <v>513</v>
       </c>
-      <c r="G63" s="132" t="s">
+      <c r="G63" s="128" t="s">
         <v>514</v>
       </c>
       <c r="H63" s="111" t="s">
@@ -11287,7 +11519,7 @@
       <c r="F66" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="G66" s="132" t="s">
+      <c r="G66" s="128" t="s">
         <v>545</v>
       </c>
       <c r="H66" s="111" t="s">
@@ -11313,7 +11545,7 @@
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="127" t="s">
         <v>587</v>
       </c>
       <c r="D67" s="108" t="s">
@@ -11339,7 +11571,7 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="127" t="s">
+      <c r="A68" s="126" t="s">
         <v>602</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -11371,7 +11603,7 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="126" t="s">
         <v>610</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -11403,7 +11635,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="127" t="s">
+      <c r="A70" s="126" t="s">
         <v>618</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -11438,7 +11670,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="127" t="s">
+      <c r="A71" s="126" t="s">
         <v>628</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -11473,7 +11705,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="126" t="s">
         <v>636</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -11505,7 +11737,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="126" t="s">
         <v>643</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -11543,7 +11775,7 @@
       <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="131" t="s">
+      <c r="C74" s="127" t="s">
         <v>651</v>
       </c>
       <c r="D74" s="110" t="s">
@@ -11575,7 +11807,7 @@
       <c r="B75" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="131" t="s">
+      <c r="C75" s="127" t="s">
         <v>660</v>
       </c>
       <c r="D75" s="110" t="s">
@@ -11607,7 +11839,7 @@
       <c r="B76" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="127" t="s">
         <v>669</v>
       </c>
       <c r="D76" s="110" t="s">
@@ -11639,7 +11871,7 @@
       <c r="B77" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="131" t="s">
+      <c r="C77" s="127" t="s">
         <v>676</v>
       </c>
       <c r="D77" s="110" t="s">
@@ -11671,7 +11903,7 @@
       <c r="B78" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="127" t="s">
         <v>684</v>
       </c>
       <c r="D78" s="110" t="s">
@@ -11703,7 +11935,7 @@
       <c r="B79" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="127" t="s">
         <v>690</v>
       </c>
       <c r="D79" s="110" t="s">
@@ -11729,13 +11961,13 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="126" t="s">
+      <c r="A80" s="125" t="s">
         <v>913</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="131" t="s">
+      <c r="C80" s="127" t="s">
         <v>910</v>
       </c>
       <c r="D80" s="108" t="s">
@@ -11761,13 +11993,13 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="126" t="s">
+      <c r="A81" s="125" t="s">
         <v>705</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="131" t="s">
+      <c r="C81" s="127" t="s">
         <v>911</v>
       </c>
       <c r="D81" s="108" t="s">
@@ -11796,13 +12028,13 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="125" t="s">
         <v>727</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="131" t="s">
+      <c r="C82" s="127" t="s">
         <v>939</v>
       </c>
       <c r="D82" s="108" t="s">
@@ -11831,13 +12063,13 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="126" t="s">
+      <c r="A83" s="125" t="s">
         <v>734</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="131" t="s">
+      <c r="C83" s="127" t="s">
         <v>940</v>
       </c>
       <c r="D83" s="108" t="s">
@@ -11866,19 +12098,19 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="126" t="s">
+      <c r="A84" s="125" t="s">
         <v>697</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="131" t="s">
+      <c r="C84" s="127" t="s">
         <v>941</v>
       </c>
       <c r="D84" s="108" t="s">
         <v>406</v>
       </c>
-      <c r="E84" s="132" t="s">
+      <c r="E84" s="128" t="s">
         <v>982</v>
       </c>
       <c r="F84" s="113" t="s">
@@ -11898,19 +12130,19 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="125" t="s">
         <v>720</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="131" t="s">
+      <c r="C85" s="127" t="s">
         <v>942</v>
       </c>
       <c r="D85" s="108" t="s">
         <v>421</v>
       </c>
-      <c r="E85" s="132" t="s">
+      <c r="E85" s="128" t="s">
         <v>986</v>
       </c>
       <c r="F85" s="113" t="s">
@@ -11930,19 +12162,19 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="126" t="s">
+      <c r="A86" s="125" t="s">
         <v>713</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="131" t="s">
+      <c r="C86" s="127" t="s">
         <v>943</v>
       </c>
       <c r="D86" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="E86" s="132" t="s">
+      <c r="E86" s="128" t="s">
         <v>990</v>
       </c>
       <c r="F86" s="113" t="s">
@@ -11962,19 +12194,19 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="126" t="s">
+      <c r="A87" s="125" t="s">
         <v>741</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="131" t="s">
+      <c r="C87" s="127" t="s">
         <v>944</v>
       </c>
       <c r="D87" s="108" t="s">
         <v>429</v>
       </c>
-      <c r="E87" s="132" t="s">
+      <c r="E87" s="128" t="s">
         <v>995</v>
       </c>
       <c r="F87" s="113" t="s">
@@ -11994,19 +12226,19 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="125" t="s">
         <v>931</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="131" t="s">
+      <c r="C88" s="127" t="s">
         <v>945</v>
       </c>
       <c r="D88" s="108" t="s">
         <v>994</v>
       </c>
-      <c r="E88" s="132" t="s">
+      <c r="E88" s="128" t="s">
         <v>996</v>
       </c>
       <c r="F88" s="113" t="s">
@@ -12026,19 +12258,19 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="126" t="s">
+      <c r="A89" s="125" t="s">
         <v>932</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="131" t="s">
+      <c r="C89" s="127" t="s">
         <v>946</v>
       </c>
       <c r="D89" s="108" t="s">
         <v>702</v>
       </c>
-      <c r="E89" s="132" t="s">
+      <c r="E89" s="128" t="s">
         <v>999</v>
       </c>
       <c r="F89" s="113" t="s">
@@ -12058,19 +12290,19 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="126" t="s">
+      <c r="A90" s="125" t="s">
         <v>933</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="131" t="s">
+      <c r="C90" s="127" t="s">
         <v>947</v>
       </c>
       <c r="D90" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="E90" s="132" t="s">
+      <c r="E90" s="128" t="s">
         <v>1008</v>
       </c>
       <c r="F90" s="113" t="s">
@@ -12090,19 +12322,19 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="126" t="s">
+      <c r="A91" s="125" t="s">
         <v>934</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="131" t="s">
+      <c r="C91" s="127" t="s">
         <v>948</v>
       </c>
       <c r="D91" s="108" t="s">
         <v>1007</v>
       </c>
-      <c r="E91" s="132" t="s">
+      <c r="E91" s="128" t="s">
         <v>1009</v>
       </c>
       <c r="F91" s="113" t="s">
@@ -12122,16 +12354,16 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="126" t="s">
+      <c r="A92" s="125" t="s">
         <v>935</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="109" t="s">
         <v>848</v>
       </c>
-      <c r="E92" s="132" t="s">
+      <c r="E92" s="128" t="s">
         <v>255</v>
       </c>
       <c r="F92" s="113" t="s">
@@ -12151,7 +12383,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="126" t="s">
+      <c r="A93" s="125" t="s">
         <v>936</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -12160,10 +12392,10 @@
       <c r="C93" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D93" s="108" t="s">
+      <c r="D93" s="109" t="s">
         <v>708</v>
       </c>
-      <c r="E93" s="132" t="s">
+      <c r="E93" s="128" t="s">
         <v>76</v>
       </c>
       <c r="F93" s="113" t="s">
@@ -12186,7 +12418,7 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="126" t="s">
+      <c r="A94" s="125" t="s">
         <v>937</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -12198,7 +12430,7 @@
       <c r="D94" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="E94" s="132" t="s">
+      <c r="E94" s="128" t="s">
         <v>223</v>
       </c>
       <c r="F94" s="113" t="s">
@@ -12221,7 +12453,7 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="126" t="s">
+      <c r="A95" s="125" t="s">
         <v>938</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -12233,7 +12465,7 @@
       <c r="D95" s="108" t="s">
         <v>1014</v>
       </c>
-      <c r="E95" s="132" t="s">
+      <c r="E95" s="128" t="s">
         <v>261</v>
       </c>
       <c r="F95" s="113" t="s">
@@ -12253,13 +12485,13 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="126" t="s">
+      <c r="A96" s="125" t="s">
         <v>912</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="131" t="s">
+      <c r="C96" s="127" t="s">
         <v>909</v>
       </c>
       <c r="D96" s="108" t="s">
@@ -12285,7 +12517,7 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="126" t="s">
+      <c r="A97" s="125" t="s">
         <v>1046</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -12323,7 +12555,7 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="127" t="s">
+      <c r="A98" s="126" t="s">
         <v>1044</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -12341,7 +12573,7 @@
       <c r="F98" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="G98" s="132" t="s">
+      <c r="G98" s="128" t="s">
         <v>255</v>
       </c>
       <c r="H98" s="111" t="s">
@@ -12361,7 +12593,7 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="127" t="s">
+      <c r="A99" s="126" t="s">
         <v>1044</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -12379,7 +12611,7 @@
       <c r="F99" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="132" t="s">
+      <c r="G99" s="128" t="s">
         <v>261</v>
       </c>
       <c r="H99" s="111" t="s">
@@ -12399,7 +12631,7 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="127" t="s">
+      <c r="A100" s="126" t="s">
         <v>1044</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -12417,7 +12649,7 @@
       <c r="F100" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="G100" s="132" t="s">
+      <c r="G100" s="128" t="s">
         <v>1038</v>
       </c>
       <c r="H100" s="111" t="s">
@@ -12437,7 +12669,7 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="127" t="s">
+      <c r="A101" s="126" t="s">
         <v>1044</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -12455,7 +12687,7 @@
       <c r="F101" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="G101" s="132" t="s">
+      <c r="G101" s="128" t="s">
         <v>1030</v>
       </c>
       <c r="H101" s="111" t="s">
@@ -12475,7 +12707,7 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="127" t="s">
+      <c r="A102" s="126" t="s">
         <v>1044</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -12493,7 +12725,7 @@
       <c r="F102" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="G102" s="132" t="s">
+      <c r="G102" s="128" t="s">
         <v>535</v>
       </c>
       <c r="H102" s="111" t="s">
@@ -12521,4 +12753,1970 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498E122-41A9-4336-B180-463F02F789BB}">
+  <dimension ref="A1:AI38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="143" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="134"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="134"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="29"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="134"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="134"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="29"/>
+    </row>
+    <row r="6" spans="1:35" ht="21" customHeight="1">
+      <c r="A6" s="134"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V6" s="36">
+        <v>10</v>
+      </c>
+      <c r="W6" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE6" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF6" s="56">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI6" s="29"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="134"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V7" s="43">
+        <v>12</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="42">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI7" s="29"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="134"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V8" s="138">
+        <v>11</v>
+      </c>
+      <c r="W8" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF8" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH8" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI8" s="29"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="134"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="43">
+        <v>13</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="42">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI9" s="29"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="134"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="36">
+        <v>40</v>
+      </c>
+      <c r="W10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="40">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="40">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI10" s="29"/>
+    </row>
+    <row r="11" spans="1:35" ht="22.5" customHeight="1">
+      <c r="A11" s="134"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="43">
+        <v>41</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" s="42">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="42">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI11" s="29"/>
+    </row>
+    <row r="12" spans="1:35" ht="18.75" customHeight="1">
+      <c r="A12" s="134"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V12" s="36">
+        <v>42</v>
+      </c>
+      <c r="W12" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="40">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="40">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI12" s="29"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="134"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="43">
+        <v>43</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="42">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="42">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI13" s="29"/>
+    </row>
+    <row r="14" spans="1:35" ht="18.75" customHeight="1">
+      <c r="A14" s="134"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="V14" s="36">
+        <v>44</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="40">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="40">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI14" s="29"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="134"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="V15" s="43">
+        <v>45</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="42">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="42">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI15" s="29"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="135">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="36">
+        <v>6</v>
+      </c>
+      <c r="W16" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="40">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI16" s="29"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="136">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="V17" s="43">
+        <v>9</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="X17" s="34">
+        <v>2.11</v>
+      </c>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="42">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI17" s="29"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="V18" s="36">
+        <v>32</v>
+      </c>
+      <c r="W18" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="31">
+        <v>2.12</v>
+      </c>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF18" s="40">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI18" s="29"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="134">
+        <v>1.19</v>
+      </c>
+      <c r="B19" s="132" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="132" t="str">
+        <f>$I$18</f>
+        <v>3:11</v>
+      </c>
+      <c r="J19" s="132" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="M19" s="144" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V19" s="141">
+        <v>47</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF19" s="100">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI19" s="29"/>
+    </row>
+    <row r="20" spans="1:35" ht="24.75" customHeight="1">
+      <c r="A20" s="135">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="V20" s="142">
+        <v>48</v>
+      </c>
+      <c r="W20" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="51">
+        <v>2.14</v>
+      </c>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF20" s="99">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI20" s="29"/>
+    </row>
+    <row r="21" spans="1:35" ht="18.75" customHeight="1">
+      <c r="A21" s="134"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="V21" s="141">
+        <v>49</v>
+      </c>
+      <c r="W21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF21" s="100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI21" s="29"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="135">
+        <v>1.18</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="40">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="36">
+        <v>8</v>
+      </c>
+      <c r="W22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X22" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="Y22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI22" s="29"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="139">
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K23" s="104" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M23" s="144">
+        <v>64</v>
+      </c>
+      <c r="V23" s="43">
+        <v>7</v>
+      </c>
+      <c r="W23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" s="34">
+        <v>2.17</v>
+      </c>
+      <c r="Y23" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI23" s="29"/>
+    </row>
+    <row r="24" spans="1:35" ht="16.5" customHeight="1">
+      <c r="A24" s="136">
+        <v>1.17</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="42">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="W24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" s="31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB24" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE24" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI24" s="29"/>
+    </row>
+    <row r="25" spans="1:35" ht="17.25" customHeight="1">
+      <c r="A25" s="136">
+        <v>1.24</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="43" t="s">
+        <v>1048</v>
+      </c>
+      <c r="W25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="34">
+        <v>2.19</v>
+      </c>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB25" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI25" s="29"/>
+    </row>
+    <row r="26" spans="1:35" ht="16.5" customHeight="1">
+      <c r="A26" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="V26" s="142">
+        <v>52</v>
+      </c>
+      <c r="W26" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" s="99">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI26" s="29"/>
+    </row>
+    <row r="27" spans="1:35" ht="18.75" customHeight="1">
+      <c r="A27" s="135">
+        <v>1.25</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="40">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="V27" s="141">
+        <v>53</v>
+      </c>
+      <c r="W27" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="100">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI27" s="29"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="134" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="139">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K28" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M28" s="144">
+        <v>65</v>
+      </c>
+      <c r="V28" s="141">
+        <v>54</v>
+      </c>
+      <c r="W28" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="99">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI28" s="29"/>
+    </row>
+    <row r="29" spans="1:35" ht="17.25" customHeight="1">
+      <c r="A29" s="134" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="139">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J29" s="139">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="K29" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M29" s="144">
+        <v>66</v>
+      </c>
+      <c r="V29" s="141">
+        <v>55</v>
+      </c>
+      <c r="W29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="100">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI29" s="29"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="134" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="139">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="J30" s="139">
+        <v>8.4722222222222227E-2</v>
+      </c>
+      <c r="K30" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M30" s="144">
+        <v>67</v>
+      </c>
+      <c r="V30" s="141">
+        <v>56</v>
+      </c>
+      <c r="W30" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30" s="99">
+        <v>0.1</v>
+      </c>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI30" s="29"/>
+    </row>
+    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+      <c r="A31" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="139">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="J31" s="139">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="K31" s="104" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="144">
+        <v>26</v>
+      </c>
+      <c r="V31" s="141">
+        <v>57</v>
+      </c>
+      <c r="W31" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="X31" s="100">
+        <v>0.10069444444444445</v>
+      </c>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI31" s="29"/>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="134">
+        <v>1</v>
+      </c>
+      <c r="V32" s="141">
+        <v>58</v>
+      </c>
+      <c r="W32" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="X32" s="100">
+        <v>0.10138888888888889</v>
+      </c>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI32" s="29"/>
+    </row>
+    <row r="33" spans="1:35" ht="17.25" customHeight="1">
+      <c r="A33" s="138">
+        <v>1.3</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="134">
+        <v>0</v>
+      </c>
+      <c r="V33" s="141">
+        <v>59</v>
+      </c>
+      <c r="W33" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="100">
+        <v>0.10208333333333333</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI33" s="29"/>
+    </row>
+    <row r="34" spans="1:35" ht="18" customHeight="1">
+      <c r="A34" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="W34" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" s="31">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Y34" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI34" s="29"/>
+    </row>
+    <row r="35" spans="1:35" ht="17.25" customHeight="1">
+      <c r="A35" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M35" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="W35" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35" s="34">
+        <v>2.29</v>
+      </c>
+      <c r="Y35" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI35" s="29"/>
+    </row>
+    <row r="36" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A36" s="136">
+        <v>1.31</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="42">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="V36" s="141">
+        <v>62</v>
+      </c>
+      <c r="W36" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="X36" s="100">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF36" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI36" s="29"/>
+    </row>
+    <row r="37" spans="1:35" ht="18" customHeight="1">
+      <c r="A37" s="134"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="V37" s="141">
+        <v>63</v>
+      </c>
+      <c r="W37" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" s="100">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF37" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI37" s="29"/>
+    </row>
+    <row r="38" spans="1:35" ht="4.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/DogBoneSDRAMv1.xlsx
+++ b/docs/DogBoneSDRAMv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EVKB_1060\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C05FE3-A1A7-4A62-8D80-956C411AF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826ADCE1-1AE0-4248-886D-11AF4B21F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2400" windowWidth="33465" windowHeight="14415" tabRatio="400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="2505" windowWidth="35145" windowHeight="16965" tabRatio="400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1072">
   <si>
     <t>B0_01</t>
   </si>
@@ -3442,6 +3442,30 @@
   </si>
   <si>
     <t>A1:10</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>AD_B0_14</t>
+  </si>
+  <si>
+    <t>AD_B0_15</t>
+  </si>
+  <si>
+    <t>2_TX,3_TX</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>2_RX, 3_RX</t>
   </si>
 </sst>
 </file>
@@ -4238,15 +4262,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -4268,6 +4283,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4719,61 +4743,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>795618</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>634234</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D640AD66-4DED-F7F8-1DDA-22EBF67E00B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E00D930-B012-6A1B-1F1F-D997A6A87269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9749118" y="123266"/>
-          <a:ext cx="4892469" cy="8516470"/>
+          <a:off x="9782734" y="0"/>
+          <a:ext cx="4907109" cy="8729382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -9343,21 +9350,21 @@
       <c r="M10" s="96"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="131"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="144"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="86" t="s">
@@ -12760,7 +12767,7 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12769,6 +12776,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
@@ -12784,7 +12792,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="130" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -12820,10 +12828,10 @@
       <c r="L1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="M1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="140" t="s">
+      <c r="V1" s="137" t="s">
         <v>40</v>
       </c>
       <c r="W1" s="55" t="s">
@@ -12864,7 +12872,7 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="134"/>
+      <c r="A2" s="131"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -12876,8 +12884,8 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="134"/>
-      <c r="V2" s="134"/>
+      <c r="M2" s="131"/>
+      <c r="V2" s="131"/>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
@@ -12893,7 +12901,7 @@
       <c r="AI2" s="29"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="134"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -12905,8 +12913,8 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="134"/>
-      <c r="V3" s="134"/>
+      <c r="M3" s="131"/>
+      <c r="V3" s="131"/>
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
@@ -12922,7 +12930,7 @@
       <c r="AI3" s="29"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="134"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -12934,8 +12942,8 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
-      <c r="M4" s="134"/>
-      <c r="V4" s="134"/>
+      <c r="M4" s="131"/>
+      <c r="V4" s="131"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
@@ -12951,7 +12959,7 @@
       <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="134"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -12963,8 +12971,8 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="134"/>
-      <c r="V5" s="134"/>
+      <c r="M5" s="131"/>
+      <c r="V5" s="131"/>
       <c r="W5" s="28"/>
       <c r="X5" s="28"/>
       <c r="Y5" s="28"/>
@@ -12980,7 +12988,7 @@
       <c r="AI5" s="29"/>
     </row>
     <row r="6" spans="1:35" ht="21" customHeight="1">
-      <c r="A6" s="134"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -12992,7 +13000,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="134" t="s">
+      <c r="M6" s="131" t="s">
         <v>1047</v>
       </c>
       <c r="V6" s="36">
@@ -13027,7 +13035,7 @@
       <c r="AI6" s="29"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="134"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -13039,7 +13047,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="131" t="s">
         <v>1047</v>
       </c>
       <c r="V7" s="43">
@@ -13074,7 +13082,7 @@
       <c r="AI7" s="29"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="134"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -13086,10 +13094,10 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="134" t="s">
+      <c r="M8" s="131" t="s">
         <v>1047</v>
       </c>
-      <c r="V8" s="138">
+      <c r="V8" s="135">
         <v>11</v>
       </c>
       <c r="W8" s="52" t="s">
@@ -13127,7 +13135,7 @@
       <c r="AI8" s="29"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="134"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -13139,7 +13147,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="134" t="s">
+      <c r="M9" s="131" t="s">
         <v>189</v>
       </c>
       <c r="V9" s="43">
@@ -13174,7 +13182,7 @@
       <c r="AI9" s="29"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="134"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -13186,7 +13194,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="134" t="s">
+      <c r="M10" s="131" t="s">
         <v>189</v>
       </c>
       <c r="V10" s="36">
@@ -13219,7 +13227,7 @@
       <c r="AI10" s="29"/>
     </row>
     <row r="11" spans="1:35" ht="22.5" customHeight="1">
-      <c r="A11" s="134"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -13231,7 +13239,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="134" t="s">
+      <c r="M11" s="131" t="s">
         <v>189</v>
       </c>
       <c r="V11" s="43">
@@ -13264,7 +13272,7 @@
       <c r="AI11" s="29"/>
     </row>
     <row r="12" spans="1:35" ht="18.75" customHeight="1">
-      <c r="A12" s="134"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -13276,7 +13284,7 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="134" t="s">
+      <c r="M12" s="131" t="s">
         <v>189</v>
       </c>
       <c r="V12" s="36">
@@ -13307,7 +13315,7 @@
       <c r="AI12" s="29"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="134"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -13319,8 +13327,8 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="134" t="s">
-        <v>189</v>
+      <c r="M13" s="131" t="s">
+        <v>190</v>
       </c>
       <c r="V13" s="43">
         <v>43</v>
@@ -13350,7 +13358,7 @@
       <c r="AI13" s="29"/>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1">
-      <c r="A14" s="134"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -13360,10 +13368,10 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="134" t="s">
-        <v>189</v>
+      <c r="M14" s="131" t="s">
+        <v>192</v>
       </c>
       <c r="V14" s="36">
         <v>44</v>
@@ -13393,20 +13401,30 @@
       <c r="AI14" s="29"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="134"/>
+      <c r="A15" s="131" t="s">
+        <v>1070</v>
+      </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>1068</v>
+      </c>
       <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="134" t="s">
-        <v>190</v>
+      <c r="K15" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M15" s="131" t="s">
+        <v>1065</v>
       </c>
       <c r="V15" s="43">
         <v>45</v>
@@ -13436,32 +13454,28 @@
       <c r="AI15" s="29"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="135">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="31"/>
+      <c r="A16" s="131" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="101" t="s">
+        <v>223</v>
+      </c>
       <c r="L16" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="134" t="s">
-        <v>95</v>
+        <v>1067</v>
+      </c>
+      <c r="M16" s="131" t="s">
+        <v>1064</v>
       </c>
       <c r="V16" s="36">
         <v>6</v>
@@ -13493,34 +13507,32 @@
       <c r="AI16" s="29"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="136">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="34"/>
+      <c r="A17" s="132">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="31"/>
       <c r="L17" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="134" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="M17" s="131" t="s">
+        <v>95</v>
       </c>
       <c r="V17" s="43">
         <v>9</v>
@@ -13552,44 +13564,34 @@
       <c r="AI17" s="29"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="101" t="s">
-        <v>217</v>
-      </c>
+      <c r="A18" s="133">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="34"/>
       <c r="L18" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="134" t="s">
-        <v>175</v>
+        <v>102</v>
+      </c>
+      <c r="M18" s="131" t="s">
+        <v>101</v>
       </c>
       <c r="V18" s="36">
         <v>32</v>
@@ -13621,35 +13623,46 @@
       <c r="AI18" s="29"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="134">
-        <v>1.19</v>
-      </c>
-      <c r="B19" s="132" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="132" t="str">
-        <f>$I$18</f>
-        <v>3:11</v>
-      </c>
-      <c r="J19" s="132" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K19" s="28"/>
+      <c r="A19" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="101" t="s">
+        <v>217</v>
+      </c>
       <c r="L19" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="M19" s="144" t="s">
-        <v>1057</v>
-      </c>
-      <c r="V19" s="141">
+        <v>176</v>
+      </c>
+      <c r="M19" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="V19" s="138">
         <v>47</v>
       </c>
       <c r="W19" s="29" t="s">
@@ -13677,36 +13690,35 @@
       <c r="AI19" s="29"/>
     </row>
     <row r="20" spans="1:35" ht="24.75" customHeight="1">
-      <c r="A20" s="135">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="31"/>
+      <c r="A20" s="131">
+        <v>1.19</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="129" t="str">
+        <f>$I$19</f>
+        <v>3:11</v>
+      </c>
+      <c r="J20" s="129" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K20" s="28"/>
       <c r="L20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="142">
+        <v>443</v>
+      </c>
+      <c r="M20" s="141" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V20" s="139">
         <v>48</v>
       </c>
       <c r="W20" s="58" t="s">
@@ -13734,22 +13746,36 @@
       <c r="AI20" s="29"/>
     </row>
     <row r="21" spans="1:35" ht="18.75" customHeight="1">
-      <c r="A21" s="134"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="134" t="s">
-        <v>192</v>
-      </c>
-      <c r="V21" s="141">
+      <c r="A21" s="132">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="V21" s="138">
         <v>49</v>
       </c>
       <c r="W21" s="59" t="s">
@@ -13777,7 +13803,7 @@
       <c r="AI21" s="29"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="135">
+      <c r="A22" s="132">
         <v>1.18</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -13803,7 +13829,7 @@
       <c r="L22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="134" t="s">
+      <c r="M22" s="131" t="s">
         <v>64</v>
       </c>
       <c r="V22" s="36">
@@ -13840,7 +13866,7 @@
       <c r="AI22" s="29"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="131" t="s">
         <v>252</v>
       </c>
       <c r="B23" s="28"/>
@@ -13852,7 +13878,7 @@
         <v>1017</v>
       </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="139">
+      <c r="I23" s="136">
         <v>0.12777777777777777</v>
       </c>
       <c r="J23" s="28" t="s">
@@ -13864,7 +13890,7 @@
       <c r="L23" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="M23" s="144">
+      <c r="M23" s="141">
         <v>64</v>
       </c>
       <c r="V23" s="43">
@@ -13901,7 +13927,7 @@
       <c r="AI23" s="29"/>
     </row>
     <row r="24" spans="1:35" ht="16.5" customHeight="1">
-      <c r="A24" s="136">
+      <c r="A24" s="133">
         <v>1.17</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -13927,7 +13953,7 @@
       <c r="L24" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="134" t="s">
+      <c r="M24" s="131" t="s">
         <v>77</v>
       </c>
       <c r="V24" s="36" t="s">
@@ -13964,7 +13990,7 @@
       <c r="AI24" s="29"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A25" s="136">
+      <c r="A25" s="133">
         <v>1.24</v>
       </c>
       <c r="B25" s="34"/>
@@ -13990,7 +14016,7 @@
       <c r="L25" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="134" t="s">
+      <c r="M25" s="131" t="s">
         <v>150</v>
       </c>
       <c r="V25" s="43" t="s">
@@ -14063,10 +14089,10 @@
       <c r="L26" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="134" t="s">
+      <c r="M26" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="V26" s="142">
+      <c r="V26" s="139">
         <v>52</v>
       </c>
       <c r="W26" s="58" t="s">
@@ -14094,7 +14120,7 @@
       <c r="AI26" s="29"/>
     </row>
     <row r="27" spans="1:35" ht="18.75" customHeight="1">
-      <c r="A27" s="135">
+      <c r="A27" s="132">
         <v>1.25</v>
       </c>
       <c r="B27" s="31"/>
@@ -14122,10 +14148,10 @@
       <c r="L27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="134" t="s">
+      <c r="M27" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="V27" s="141">
+      <c r="V27" s="138">
         <v>53</v>
       </c>
       <c r="W27" s="59" t="s">
@@ -14153,7 +14179,7 @@
       <c r="AI27" s="29"/>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="131" t="s">
         <v>1059</v>
       </c>
       <c r="B28" s="28"/>
@@ -14162,7 +14188,7 @@
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="139">
+      <c r="I28" s="136">
         <v>0.12847222222222221</v>
       </c>
       <c r="J28" s="28" t="s">
@@ -14174,10 +14200,10 @@
       <c r="L28" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="M28" s="144">
+      <c r="M28" s="141">
         <v>65</v>
       </c>
-      <c r="V28" s="141">
+      <c r="V28" s="138">
         <v>54</v>
       </c>
       <c r="W28" s="58" t="s">
@@ -14205,7 +14231,7 @@
       <c r="AI28" s="29"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="131" t="s">
         <v>1060</v>
       </c>
       <c r="B29" s="28"/>
@@ -14215,10 +14241,10 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="139">
+      <c r="I29" s="136">
         <v>0.13333333333333333</v>
       </c>
-      <c r="J29" s="139">
+      <c r="J29" s="136">
         <v>8.4027777777777785E-2</v>
       </c>
       <c r="K29" s="104" t="s">
@@ -14227,10 +14253,10 @@
       <c r="L29" s="28" t="s">
         <v>1054</v>
       </c>
-      <c r="M29" s="144">
+      <c r="M29" s="141">
         <v>66</v>
       </c>
-      <c r="V29" s="141">
+      <c r="V29" s="138">
         <v>55</v>
       </c>
       <c r="W29" s="59" t="s">
@@ -14258,7 +14284,7 @@
       <c r="AI29" s="29"/>
     </row>
     <row r="30" spans="1:35">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="131" t="s">
         <v>1061</v>
       </c>
       <c r="B30" s="28"/>
@@ -14268,10 +14294,10 @@
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="139">
+      <c r="I30" s="136">
         <v>0.13402777777777777</v>
       </c>
-      <c r="J30" s="139">
+      <c r="J30" s="136">
         <v>8.4722222222222227E-2</v>
       </c>
       <c r="K30" s="104" t="s">
@@ -14280,10 +14306,10 @@
       <c r="L30" s="28" t="s">
         <v>1055</v>
       </c>
-      <c r="M30" s="144">
+      <c r="M30" s="141">
         <v>67</v>
       </c>
-      <c r="V30" s="141">
+      <c r="V30" s="138">
         <v>56</v>
       </c>
       <c r="W30" s="58" t="s">
@@ -14311,7 +14337,7 @@
       <c r="AI30" s="29"/>
     </row>
     <row r="31" spans="1:35" ht="18.75" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="131" t="s">
         <v>231</v>
       </c>
       <c r="B31" s="28"/>
@@ -14321,10 +14347,10 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="139">
+      <c r="I31" s="136">
         <v>0.13472222222222222</v>
       </c>
-      <c r="J31" s="139">
+      <c r="J31" s="136">
         <v>8.5416666666666669E-2</v>
       </c>
       <c r="K31" s="104" t="s">
@@ -14333,10 +14359,10 @@
       <c r="L31" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="144">
+      <c r="M31" s="141">
         <v>26</v>
       </c>
-      <c r="V31" s="141">
+      <c r="V31" s="138">
         <v>57</v>
       </c>
       <c r="W31" s="59" t="s">
@@ -14364,7 +14390,7 @@
       <c r="AI31" s="29"/>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" s="137">
+      <c r="A32" s="134">
         <v>1.2</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -14389,10 +14415,10 @@
       <c r="L32" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="M32" s="134">
+      <c r="M32" s="131">
         <v>1</v>
       </c>
-      <c r="V32" s="141">
+      <c r="V32" s="138">
         <v>58</v>
       </c>
       <c r="W32" s="58" t="s">
@@ -14420,7 +14446,7 @@
       <c r="AI32" s="29"/>
     </row>
     <row r="33" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A33" s="138">
+      <c r="A33" s="135">
         <v>1.3</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -14446,10 +14472,10 @@
       <c r="L33" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="M33" s="134">
+      <c r="M33" s="131">
         <v>0</v>
       </c>
-      <c r="V33" s="141">
+      <c r="V33" s="138">
         <v>59</v>
       </c>
       <c r="W33" s="59" t="s">
@@ -14475,7 +14501,7 @@
       <c r="AI33" s="29"/>
     </row>
     <row r="34" spans="1:35" ht="18" customHeight="1">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="133" t="s">
         <v>207</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -14511,7 +14537,7 @@
       <c r="L34" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="134" t="s">
+      <c r="M34" s="131" t="s">
         <v>70</v>
       </c>
       <c r="V34" s="36" t="s">
@@ -14542,7 +14568,7 @@
       <c r="AI34" s="29"/>
     </row>
     <row r="35" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="132" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -14578,7 +14604,7 @@
       <c r="L35" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M35" s="134" t="s">
+      <c r="M35" s="131" t="s">
         <v>157</v>
       </c>
       <c r="V35" s="43" t="s">
@@ -14609,7 +14635,7 @@
       <c r="AI35" s="29"/>
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A36" s="136">
+      <c r="A36" s="133">
         <v>1.31</v>
       </c>
       <c r="B36" s="34"/>
@@ -14635,10 +14661,10 @@
       <c r="L36" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="134" t="s">
+      <c r="M36" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="141">
+      <c r="V36" s="138">
         <v>62</v>
       </c>
       <c r="W36" s="29" t="s">
@@ -14668,7 +14694,7 @@
       <c r="AI36" s="29"/>
     </row>
     <row r="37" spans="1:35" ht="18" customHeight="1">
-      <c r="A37" s="134"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -14680,10 +14706,10 @@
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
-      <c r="M37" s="134" t="s">
+      <c r="M37" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="V37" s="141">
+      <c r="V37" s="138">
         <v>63</v>
       </c>
       <c r="W37" s="29" t="s">
